--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497359.6840775296</v>
+        <v>495562.342143892</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5432009.407419564</v>
+        <v>5432009.407419563</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.9616394266884</v>
       </c>
       <c r="C11" t="n">
-        <v>195.587953838841</v>
+        <v>285.5006895342154</v>
       </c>
       <c r="D11" t="n">
-        <v>274.9108393838908</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>302.1581678354696</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.1038435049193</v>
       </c>
       <c r="G11" t="n">
         <v>332.7660516473945</v>
       </c>
       <c r="H11" t="n">
-        <v>231.3908318935252</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>24.1259321514773</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.25219660921752</v>
+        <v>66.25219660921753</v>
       </c>
       <c r="T11" t="n">
-        <v>131.2221202328628</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.3522919805685</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>269.4687664806208</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>88.89786486386569</v>
       </c>
       <c r="Y11" t="n">
         <v>306.4657364192614</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.563203226946</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>67.67286332784657</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1464,7 +1464,7 @@
         <v>135.864388020482</v>
       </c>
       <c r="H12" t="n">
-        <v>97.95017067382774</v>
+        <v>97.95017067382776</v>
       </c>
       <c r="I12" t="n">
         <v>38.47047596360881</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.322079133052583</v>
+        <v>8.322079133052597</v>
       </c>
       <c r="S12" t="n">
-        <v>144.2089960185054</v>
+        <v>64.43679378171323</v>
       </c>
       <c r="T12" t="n">
-        <v>194.2028002642619</v>
+        <v>114.4305980274697</v>
       </c>
       <c r="U12" t="n">
-        <v>146.0718687163715</v>
+        <v>160.8740905302428</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1591,7 +1591,7 @@
         <v>206.7507960997988</v>
       </c>
       <c r="X13" t="n">
-        <v>145.9374531522462</v>
+        <v>145.937453152245</v>
       </c>
       <c r="Y13" t="n">
         <v>138.8124511153026</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.4756079864707</v>
+        <v>302.9616394266884</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.5006895342154</v>
       </c>
       <c r="D14" t="n">
-        <v>274.9108393838908</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>302.1581678354696</v>
@@ -1622,10 +1622,10 @@
         <v>332.7660516473945</v>
       </c>
       <c r="H14" t="n">
-        <v>231.3908318935252</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24.12593215147729</v>
+        <v>24.12593215147731</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>247.9800562333427</v>
       </c>
       <c r="W14" t="n">
-        <v>269.4687664806208</v>
+        <v>213.7837167836031</v>
       </c>
       <c r="X14" t="n">
         <v>289.9588984416769</v>
@@ -1695,13 +1695,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>65.2970101565917</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>70.89440759756053</v>
+        <v>79.2164867306133</v>
       </c>
       <c r="H15" t="n">
-        <v>97.95017067382774</v>
+        <v>97.95017067382776</v>
       </c>
       <c r="I15" t="n">
         <v>38.47047596360881</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.322079133052583</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>144.2089960185054</v>
+        <v>64.43679378171323</v>
       </c>
       <c r="T15" t="n">
-        <v>194.2028002642619</v>
+        <v>114.4305980274697</v>
       </c>
       <c r="U15" t="n">
-        <v>146.0718687163715</v>
+        <v>225.8440709531637</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1765,7 +1765,7 @@
         <v>100.0597779451451</v>
       </c>
       <c r="C16" t="n">
-        <v>87.47461886183565</v>
+        <v>87.4746188618353</v>
       </c>
       <c r="D16" t="n">
         <v>68.84327078142017</v>
@@ -1780,7 +1780,7 @@
         <v>86.97872493557109</v>
       </c>
       <c r="H16" t="n">
-        <v>71.4297790160894</v>
+        <v>71.42977901608938</v>
       </c>
       <c r="I16" t="n">
         <v>38.38652149406745</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76393357284779</v>
+        <v>41.7639335728478</v>
       </c>
       <c r="S16" t="n">
         <v>122.6336681570434</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.4212809924729</v>
+        <v>230.421280992473</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>212.9603311</v>
       </c>
       <c r="D17" t="n">
-        <v>202.3704809496753</v>
+        <v>202.3704809496754</v>
       </c>
       <c r="E17" t="n">
-        <v>229.6178094012541</v>
+        <v>222.6356597627062</v>
       </c>
       <c r="F17" t="n">
         <v>254.5634850707038</v>
@@ -1859,7 +1859,7 @@
         <v>260.2256932131791</v>
       </c>
       <c r="H17" t="n">
-        <v>158.8504734593097</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>58.68176179864727</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>87.25787974984691</v>
+        <v>98.81193354635303</v>
       </c>
       <c r="V17" t="n">
-        <v>175.4396977991272</v>
+        <v>175.4396977991273</v>
       </c>
       <c r="W17" t="n">
-        <v>196.9284080464053</v>
+        <v>196.9284080464054</v>
       </c>
       <c r="X17" t="n">
         <v>217.4185400074614</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.9253779850459</v>
+        <v>233.925377985046</v>
       </c>
     </row>
     <row r="18">
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>9.300173797803797</v>
+        <v>55.5589991424816</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.95017067382776</v>
       </c>
       <c r="I18" t="n">
         <v>38.47047596360881</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.322079133052583</v>
+        <v>8.322079133052597</v>
       </c>
       <c r="S18" t="n">
-        <v>144.2089960185054</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>194.2028002642619</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.51941951092962</v>
+        <v>27.51941951092971</v>
       </c>
       <c r="C19" t="n">
-        <v>14.93426042762016</v>
+        <v>55.0092169440066</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>14.4383665013556</v>
+        <v>14.43836650135569</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.2019812528816</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29643958881739</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.53613580964</v>
       </c>
       <c r="S19" t="n">
-        <v>50.09330972282789</v>
+        <v>50.09330972282798</v>
       </c>
       <c r="T19" t="n">
-        <v>70.33462396213858</v>
+        <v>70.33462396213866</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2513901463402</v>
+        <v>133.9388294753326</v>
       </c>
       <c r="V19" t="n">
-        <v>99.82508265282033</v>
+        <v>99.82508265282041</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>134.2104376655834</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>73.39709471802956</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.27209268108712</v>
+        <v>66.2720926810872</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.4212809924729</v>
+        <v>230.421280992473</v>
       </c>
       <c r="C20" t="n">
         <v>212.9603310999999</v>
       </c>
       <c r="D20" t="n">
-        <v>195.2746360606314</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>229.6178094012541</v>
+        <v>229.6178094012542</v>
       </c>
       <c r="F20" t="n">
         <v>254.5634850707038</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>58.68176179864727</v>
+        <v>36.53785785181656</v>
       </c>
       <c r="U20" t="n">
-        <v>98.81193354635295</v>
+        <v>98.811933546353</v>
       </c>
       <c r="V20" t="n">
-        <v>175.4396977991272</v>
+        <v>175.4396977991273</v>
       </c>
       <c r="W20" t="n">
-        <v>196.9284080464053</v>
+        <v>196.9284080464054</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>217.4185400074614</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.9253779850459</v>
+        <v>233.925377985046</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>135.864388020482</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.95017067382774</v>
       </c>
       <c r="I21" t="n">
         <v>38.47047596360881</v>
@@ -2208,7 +2208,7 @@
         <v>8.322079133052583</v>
       </c>
       <c r="S21" t="n">
-        <v>17.64478179582731</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>194.2028002642619</v>
@@ -2220,7 +2220,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>171.3895942829194</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.51941951092962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>14.93426042762016</v>
+        <v>14.93426042762022</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.4383665013556</v>
+        <v>15.73480609017253</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.687490559722292</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.53613580964</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>76.47868361329058</v>
+        <v>202.4058703938356</v>
       </c>
       <c r="T22" t="n">
         <v>222.6471846331463</v>
       </c>
       <c r="U22" t="n">
-        <v>133.9388294753325</v>
+        <v>133.9388294753326</v>
       </c>
       <c r="V22" t="n">
-        <v>99.82508265282033</v>
+        <v>99.82508265282038</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>134.2104376655834</v>
       </c>
       <c r="X22" t="n">
-        <v>73.39709471802948</v>
+        <v>73.39709471802954</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.27209268108712</v>
+        <v>66.27209268108717</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.4212809924729</v>
+        <v>230.421280992473</v>
       </c>
       <c r="C23" t="n">
         <v>212.9603310999999</v>
@@ -2324,7 +2324,7 @@
         <v>202.3704809496753</v>
       </c>
       <c r="E23" t="n">
-        <v>229.6178094012541</v>
+        <v>229.6178094012542</v>
       </c>
       <c r="F23" t="n">
         <v>254.5634850707038</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.68176179864727</v>
+        <v>58.68176179864733</v>
       </c>
       <c r="U23" t="n">
-        <v>98.81193354635295</v>
+        <v>98.811933546353</v>
       </c>
       <c r="V23" t="n">
-        <v>175.4396977991272</v>
+        <v>175.4396977991273</v>
       </c>
       <c r="W23" t="n">
-        <v>196.9284080464053</v>
+        <v>196.9284080464054</v>
       </c>
       <c r="X23" t="n">
         <v>217.4185400074614</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.9253779850459</v>
+        <v>233.925377985046</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.81585909974681</v>
+        <v>27.51941951092968</v>
       </c>
       <c r="C25" t="n">
-        <v>14.93426042762016</v>
+        <v>14.93426042762022</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.4383665013556</v>
+        <v>14.43836650135566</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.2019812528816</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.09330972282789</v>
+        <v>52.50032872977076</v>
       </c>
       <c r="T25" t="n">
         <v>222.6471846331463</v>
@@ -2533,16 +2533,16 @@
         <v>286.2513901463402</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>99.82508265282038</v>
       </c>
       <c r="W25" t="n">
-        <v>134.2104376655833</v>
+        <v>134.2104376655834</v>
       </c>
       <c r="X25" t="n">
-        <v>73.39709471802948</v>
+        <v>73.39709471802954</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.27209268108712</v>
+        <v>66.27209268108717</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.25219660921756</v>
+        <v>66.25219660921758</v>
       </c>
       <c r="T26" t="n">
         <v>131.2221202328628</v>
@@ -2728,7 +2728,7 @@
         <v>86.97872493557112</v>
       </c>
       <c r="H28" t="n">
-        <v>71.42977901608943</v>
+        <v>71.42977901608941</v>
       </c>
       <c r="I28" t="n">
         <v>38.38652149406748</v>
@@ -2810,7 +2810,7 @@
         <v>231.3908318935252</v>
       </c>
       <c r="I29" t="n">
-        <v>24.12593215147731</v>
+        <v>24.1259321514773</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.25219660921758</v>
+        <v>66.25219660921755</v>
       </c>
       <c r="T29" t="n">
         <v>131.2221202328628</v>
@@ -2950,25 +2950,25 @@
         <v>100.0597779451451</v>
       </c>
       <c r="C31" t="n">
-        <v>87.47461886183568</v>
+        <v>87.47461886183567</v>
       </c>
       <c r="D31" t="n">
-        <v>68.8432707814202</v>
+        <v>68.84327078142019</v>
       </c>
       <c r="E31" t="n">
-        <v>66.66176040977702</v>
+        <v>66.661760409777</v>
       </c>
       <c r="F31" t="n">
-        <v>65.64884578613909</v>
+        <v>65.64884578613908</v>
       </c>
       <c r="G31" t="n">
-        <v>86.97872493557112</v>
+        <v>86.97872493557111</v>
       </c>
       <c r="H31" t="n">
-        <v>71.42977901608941</v>
+        <v>71.4297790160894</v>
       </c>
       <c r="I31" t="n">
-        <v>38.38652149406748</v>
+        <v>38.38652149406747</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76393357284782</v>
+        <v>41.7639335728478</v>
       </c>
       <c r="S31" t="n">
         <v>122.6336681570434</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.9616394266885</v>
+        <v>302.9616394266884</v>
       </c>
       <c r="C32" t="n">
         <v>285.5006895342154</v>
@@ -3035,19 +3035,19 @@
         <v>274.9108393838908</v>
       </c>
       <c r="E32" t="n">
-        <v>302.1581678354697</v>
+        <v>302.1581678354696</v>
       </c>
       <c r="F32" t="n">
         <v>327.1038435049193</v>
       </c>
       <c r="G32" t="n">
-        <v>332.7660516473946</v>
+        <v>332.7660516473945</v>
       </c>
       <c r="H32" t="n">
         <v>231.3908318935252</v>
       </c>
       <c r="I32" t="n">
-        <v>24.12593215147736</v>
+        <v>24.12593215147731</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.25219660921761</v>
+        <v>66.25219660921756</v>
       </c>
       <c r="T32" t="n">
         <v>131.2221202328628</v>
@@ -3086,16 +3086,16 @@
         <v>171.3522919805685</v>
       </c>
       <c r="V32" t="n">
-        <v>247.9800562333428</v>
+        <v>247.9800562333427</v>
       </c>
       <c r="W32" t="n">
-        <v>269.4687664806209</v>
+        <v>269.4687664806208</v>
       </c>
       <c r="X32" t="n">
         <v>289.9588984416769</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.4657364192615</v>
+        <v>306.4657364192614</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.0597779451452</v>
+        <v>100.0597779451451</v>
       </c>
       <c r="C34" t="n">
-        <v>87.47461886183572</v>
+        <v>87.47461886183568</v>
       </c>
       <c r="D34" t="n">
-        <v>68.84327078142024</v>
+        <v>68.8432707814202</v>
       </c>
       <c r="E34" t="n">
-        <v>66.66176040977706</v>
+        <v>66.66176040977702</v>
       </c>
       <c r="F34" t="n">
-        <v>65.64884578613913</v>
+        <v>65.64884578613909</v>
       </c>
       <c r="G34" t="n">
-        <v>86.97872493557117</v>
+        <v>86.97872493557112</v>
       </c>
       <c r="H34" t="n">
-        <v>71.42977901608947</v>
+        <v>71.42977901608943</v>
       </c>
       <c r="I34" t="n">
-        <v>38.38652149406752</v>
+        <v>38.38652149406748</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76393357284786</v>
+        <v>41.76393357284782</v>
       </c>
       <c r="S34" t="n">
         <v>122.6336681570434</v>
@@ -3241,19 +3241,19 @@
         <v>142.8749823963541</v>
       </c>
       <c r="U34" t="n">
-        <v>206.4791879095481</v>
+        <v>206.479187909548</v>
       </c>
       <c r="V34" t="n">
-        <v>172.3654410870359</v>
+        <v>172.3654410870358</v>
       </c>
       <c r="W34" t="n">
-        <v>206.7507960997989</v>
+        <v>206.7507960997988</v>
       </c>
       <c r="X34" t="n">
         <v>145.937453152245</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.8124511153027</v>
+        <v>138.8124511153026</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>278.8357072752111</v>
       </c>
       <c r="C35" t="n">
-        <v>261.3747573827381</v>
+        <v>261.374757382738</v>
       </c>
       <c r="D35" t="n">
         <v>250.7849072324135</v>
@@ -3281,7 +3281,7 @@
         <v>308.6401194959172</v>
       </c>
       <c r="H35" t="n">
-        <v>207.2648997420479</v>
+        <v>207.2648997420478</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>42.12626445774025</v>
+        <v>42.12626445774023</v>
       </c>
       <c r="T35" t="n">
         <v>107.0961880813855</v>
       </c>
       <c r="U35" t="n">
-        <v>147.2263598290912</v>
+        <v>147.2263598290911</v>
       </c>
       <c r="V35" t="n">
-        <v>223.8541240818655</v>
+        <v>223.8541240818654</v>
       </c>
       <c r="W35" t="n">
-        <v>245.3428343291436</v>
+        <v>245.3428343291435</v>
       </c>
       <c r="X35" t="n">
         <v>265.8329662901996</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.93384579366783</v>
+        <v>75.93384579366781</v>
       </c>
       <c r="C37" t="n">
-        <v>63.34868671035836</v>
+        <v>63.34868671035835</v>
       </c>
       <c r="D37" t="n">
-        <v>44.71733862994289</v>
+        <v>44.71733862994287</v>
       </c>
       <c r="E37" t="n">
-        <v>42.5358282582997</v>
+        <v>42.53582825829969</v>
       </c>
       <c r="F37" t="n">
-        <v>41.52291363466178</v>
+        <v>41.52291363466176</v>
       </c>
       <c r="G37" t="n">
-        <v>62.85279278409381</v>
+        <v>62.85279278409379</v>
       </c>
       <c r="H37" t="n">
-        <v>47.3038468646121</v>
+        <v>47.30384686461208</v>
       </c>
       <c r="I37" t="n">
-        <v>14.26058934259017</v>
+        <v>14.26058934259015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.6380014213705</v>
+        <v>17.63800142137049</v>
       </c>
       <c r="S37" t="n">
-        <v>98.5077360055661</v>
+        <v>98.50773600556607</v>
       </c>
       <c r="T37" t="n">
         <v>118.7490502448768</v>
       </c>
       <c r="U37" t="n">
-        <v>182.3532557580708</v>
+        <v>182.3532557580707</v>
       </c>
       <c r="V37" t="n">
         <v>148.2395089355585</v>
@@ -3503,7 +3503,7 @@
         <v>278.8357072752111</v>
       </c>
       <c r="C38" t="n">
-        <v>261.3747573827381</v>
+        <v>261.374757382738</v>
       </c>
       <c r="D38" t="n">
         <v>250.7849072324135</v>
@@ -3518,7 +3518,7 @@
         <v>308.6401194959172</v>
       </c>
       <c r="H38" t="n">
-        <v>207.2648997420479</v>
+        <v>207.2648997420478</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>42.12626445774025</v>
+        <v>42.12626445774023</v>
       </c>
       <c r="T38" t="n">
         <v>107.0961880813855</v>
       </c>
       <c r="U38" t="n">
-        <v>147.2263598290912</v>
+        <v>147.2263598290911</v>
       </c>
       <c r="V38" t="n">
-        <v>223.8541240818655</v>
+        <v>223.8541240818654</v>
       </c>
       <c r="W38" t="n">
-        <v>245.3428343291436</v>
+        <v>245.3428343291435</v>
       </c>
       <c r="X38" t="n">
         <v>265.8329662901996</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.93384579366783</v>
+        <v>75.93384579366781</v>
       </c>
       <c r="C40" t="n">
-        <v>63.34868671035836</v>
+        <v>63.34868671035835</v>
       </c>
       <c r="D40" t="n">
-        <v>44.71733862994289</v>
+        <v>44.71733862994287</v>
       </c>
       <c r="E40" t="n">
-        <v>42.5358282582997</v>
+        <v>42.53582825829969</v>
       </c>
       <c r="F40" t="n">
-        <v>41.52291363466178</v>
+        <v>41.52291363466176</v>
       </c>
       <c r="G40" t="n">
-        <v>62.85279278409381</v>
+        <v>62.85279278409379</v>
       </c>
       <c r="H40" t="n">
-        <v>47.3038468646121</v>
+        <v>47.30384686461208</v>
       </c>
       <c r="I40" t="n">
-        <v>14.26058934259017</v>
+        <v>14.26058934259015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.6380014213705</v>
+        <v>17.63800142137049</v>
       </c>
       <c r="S40" t="n">
-        <v>98.5077360055661</v>
+        <v>98.50773600556607</v>
       </c>
       <c r="T40" t="n">
         <v>118.7490502448768</v>
       </c>
       <c r="U40" t="n">
-        <v>182.3532557580708</v>
+        <v>182.3532557580707</v>
       </c>
       <c r="V40" t="n">
         <v>148.2395089355585</v>
@@ -3740,7 +3740,7 @@
         <v>278.8357072752111</v>
       </c>
       <c r="C41" t="n">
-        <v>261.3747573827381</v>
+        <v>261.374757382738</v>
       </c>
       <c r="D41" t="n">
         <v>250.7849072324135</v>
@@ -3755,7 +3755,7 @@
         <v>308.6401194959172</v>
       </c>
       <c r="H41" t="n">
-        <v>207.2648997420479</v>
+        <v>207.2648997420478</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>42.12626445774024</v>
+        <v>42.12626445774023</v>
       </c>
       <c r="T41" t="n">
         <v>107.0961880813855</v>
       </c>
       <c r="U41" t="n">
-        <v>147.2263598290912</v>
+        <v>147.2263598290911</v>
       </c>
       <c r="V41" t="n">
-        <v>223.8541240818655</v>
+        <v>223.8541240818654</v>
       </c>
       <c r="W41" t="n">
-        <v>245.3428343291436</v>
+        <v>245.3428343291435</v>
       </c>
       <c r="X41" t="n">
         <v>265.8329662901996</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.93384579366783</v>
+        <v>75.93384579366781</v>
       </c>
       <c r="C43" t="n">
-        <v>63.34868671035836</v>
+        <v>63.34868671035835</v>
       </c>
       <c r="D43" t="n">
-        <v>44.71733862994289</v>
+        <v>44.71733862994287</v>
       </c>
       <c r="E43" t="n">
-        <v>42.5358282582997</v>
+        <v>42.53582825829969</v>
       </c>
       <c r="F43" t="n">
-        <v>41.52291363466178</v>
+        <v>41.52291363466176</v>
       </c>
       <c r="G43" t="n">
-        <v>62.85279278409381</v>
+        <v>62.85279278409379</v>
       </c>
       <c r="H43" t="n">
-        <v>47.3038468646121</v>
+        <v>47.30384686461208</v>
       </c>
       <c r="I43" t="n">
-        <v>14.26058934259017</v>
+        <v>14.26058934259015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.6380014213705</v>
+        <v>17.63800142137049</v>
       </c>
       <c r="S43" t="n">
-        <v>98.5077360055661</v>
+        <v>98.50773600556607</v>
       </c>
       <c r="T43" t="n">
         <v>118.7490502448768</v>
       </c>
       <c r="U43" t="n">
-        <v>182.3532557580708</v>
+        <v>182.3532557580707</v>
       </c>
       <c r="V43" t="n">
         <v>148.2395089355585</v>
@@ -3977,7 +3977,7 @@
         <v>278.8357072752111</v>
       </c>
       <c r="C44" t="n">
-        <v>261.3747573827381</v>
+        <v>261.374757382738</v>
       </c>
       <c r="D44" t="n">
         <v>250.7849072324135</v>
@@ -3992,7 +3992,7 @@
         <v>308.6401194959172</v>
       </c>
       <c r="H44" t="n">
-        <v>207.2648997420479</v>
+        <v>207.2648997420478</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>42.12626445774024</v>
+        <v>42.12626445774023</v>
       </c>
       <c r="T44" t="n">
         <v>107.0961880813855</v>
       </c>
       <c r="U44" t="n">
-        <v>147.2263598290912</v>
+        <v>147.2263598290911</v>
       </c>
       <c r="V44" t="n">
-        <v>223.8541240818655</v>
+        <v>223.8541240818654</v>
       </c>
       <c r="W44" t="n">
-        <v>245.3428343291436</v>
+        <v>245.3428343291435</v>
       </c>
       <c r="X44" t="n">
         <v>265.8329662901996</v>
@@ -4071,7 +4071,7 @@
         <v>135.864388020482</v>
       </c>
       <c r="H45" t="n">
-        <v>97.95017067382774</v>
+        <v>97.95017067382776</v>
       </c>
       <c r="I45" t="n">
         <v>38.47047596360881</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.322079133052583</v>
+        <v>8.322079133052597</v>
       </c>
       <c r="S45" t="n">
         <v>144.2089960185054</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.93384579366783</v>
+        <v>75.93384579366781</v>
       </c>
       <c r="C46" t="n">
-        <v>63.34868671035836</v>
+        <v>63.34868671035835</v>
       </c>
       <c r="D46" t="n">
-        <v>44.71733862994289</v>
+        <v>44.71733862994287</v>
       </c>
       <c r="E46" t="n">
-        <v>42.5358282582997</v>
+        <v>42.53582825829969</v>
       </c>
       <c r="F46" t="n">
-        <v>41.52291363466178</v>
+        <v>41.52291363466176</v>
       </c>
       <c r="G46" t="n">
-        <v>62.85279278409381</v>
+        <v>62.85279278409379</v>
       </c>
       <c r="H46" t="n">
-        <v>47.3038468646121</v>
+        <v>47.30384686461208</v>
       </c>
       <c r="I46" t="n">
-        <v>14.26058934259017</v>
+        <v>14.26058934259015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>17.6380014213705</v>
       </c>
       <c r="S46" t="n">
-        <v>98.5077360055661</v>
+        <v>98.50773600556609</v>
       </c>
       <c r="T46" t="n">
         <v>118.7490502448768</v>
       </c>
       <c r="U46" t="n">
-        <v>182.3532557580708</v>
+        <v>182.3532557580707</v>
       </c>
       <c r="V46" t="n">
         <v>148.2395089355585</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1422.217067599515</v>
+        <v>1332.030105905452</v>
       </c>
       <c r="C11" t="n">
-        <v>1224.653477863312</v>
+        <v>1043.645571022406</v>
       </c>
       <c r="D11" t="n">
-        <v>946.9657613139268</v>
+        <v>1043.645571022406</v>
       </c>
       <c r="E11" t="n">
-        <v>641.7554907730485</v>
+        <v>738.4353004815275</v>
       </c>
       <c r="F11" t="n">
-        <v>641.7554907730485</v>
+        <v>408.0273777492857</v>
       </c>
       <c r="G11" t="n">
-        <v>305.6281658766903</v>
+        <v>71.90005285292762</v>
       </c>
       <c r="H11" t="n">
-        <v>71.90005285292759</v>
+        <v>71.90005285292762</v>
       </c>
       <c r="I11" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J11" t="n">
         <v>267.9863996025064</v>
       </c>
       <c r="K11" t="n">
-        <v>719.137563336973</v>
+        <v>719.1375633369729</v>
       </c>
       <c r="L11" t="n">
-        <v>917.6225006016592</v>
+        <v>1070.761610915482</v>
       </c>
       <c r="M11" t="n">
-        <v>1170.144674705792</v>
+        <v>1323.283785019614</v>
       </c>
       <c r="N11" t="n">
-        <v>1431.366729969567</v>
+        <v>1584.50584028339</v>
       </c>
       <c r="O11" t="n">
-        <v>1664.696048122307</v>
+        <v>1817.83515843613</v>
       </c>
       <c r="P11" t="n">
-        <v>2067.316689520442</v>
+        <v>2301.056053445744</v>
       </c>
       <c r="Q11" t="n">
-        <v>2352.973697682601</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="R11" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="S11" t="n">
-        <v>2309.599810138215</v>
+        <v>2309.599810138216</v>
       </c>
       <c r="T11" t="n">
-        <v>2177.052213943404</v>
+        <v>2309.599810138216</v>
       </c>
       <c r="U11" t="n">
-        <v>2003.969090730709</v>
+        <v>2309.599810138216</v>
       </c>
       <c r="V11" t="n">
-        <v>2003.969090730709</v>
+        <v>2309.599810138216</v>
       </c>
       <c r="W11" t="n">
-        <v>1731.77841751796</v>
+        <v>2037.409136925467</v>
       </c>
       <c r="X11" t="n">
-        <v>1731.77841751796</v>
+        <v>1947.613313830654</v>
       </c>
       <c r="Y11" t="n">
-        <v>1422.217067599515</v>
+        <v>1638.051963912208</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>871.1472828240269</v>
+        <v>951.7252648813927</v>
       </c>
       <c r="C12" t="n">
-        <v>696.6942535428999</v>
+        <v>777.2722356002657</v>
       </c>
       <c r="D12" t="n">
         <v>628.3378259390145</v>
@@ -5112,58 +5112,58 @@
         <v>185.3290573841996</v>
       </c>
       <c r="H12" t="n">
-        <v>86.38949104699981</v>
+        <v>86.38949104699984</v>
       </c>
       <c r="I12" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J12" t="n">
-        <v>185.139113279897</v>
+        <v>185.1391132798969</v>
       </c>
       <c r="K12" t="n">
-        <v>546.9551236507255</v>
+        <v>285.1345390082726</v>
       </c>
       <c r="L12" t="n">
-        <v>947.4765127717889</v>
+        <v>589.604631368177</v>
       </c>
       <c r="M12" t="n">
-        <v>1177.793633529689</v>
+        <v>1177.79363352969</v>
       </c>
       <c r="N12" t="n">
         <v>1765.982635691202</v>
       </c>
       <c r="O12" t="n">
-        <v>1973.21557921552</v>
+        <v>1973.215579215521</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.205220129536</v>
+        <v>2120.205220129537</v>
       </c>
       <c r="Q12" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="R12" t="n">
-        <v>2368.115080316159</v>
+        <v>2368.11508031616</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.449427772215</v>
+        <v>2303.027409829581</v>
       </c>
       <c r="T12" t="n">
-        <v>2026.284983060839</v>
+        <v>2187.440947175571</v>
       </c>
       <c r="U12" t="n">
-        <v>1878.73764092309</v>
+        <v>2024.941865831892</v>
       </c>
       <c r="V12" t="n">
-        <v>1643.585532691347</v>
+        <v>1789.789757600149</v>
       </c>
       <c r="W12" t="n">
-        <v>1389.348175963146</v>
+        <v>1535.552400871947</v>
       </c>
       <c r="X12" t="n">
-        <v>1181.496675757613</v>
+        <v>1327.700900666415</v>
       </c>
       <c r="Y12" t="n">
-        <v>973.7363769926592</v>
+        <v>1119.940601901461</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>537.8572135937585</v>
+        <v>537.8572135937586</v>
       </c>
       <c r="C13" t="n">
-        <v>449.4990127232174</v>
+        <v>449.4990127232176</v>
       </c>
       <c r="D13" t="n">
-        <v>379.9603553682475</v>
+        <v>379.9603553682477</v>
       </c>
       <c r="E13" t="n">
-        <v>312.6252438432202</v>
+        <v>312.6252438432204</v>
       </c>
       <c r="F13" t="n">
-        <v>246.3132784026757</v>
+        <v>246.3132784026759</v>
       </c>
       <c r="G13" t="n">
-        <v>158.4559804879574</v>
+        <v>158.4559804879576</v>
       </c>
       <c r="H13" t="n">
-        <v>86.3046885525136</v>
+        <v>86.30468855251378</v>
       </c>
       <c r="I13" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J13" t="n">
         <v>120.8742889773911</v>
@@ -5203,10 +5203,10 @@
         <v>320.4327747288935</v>
       </c>
       <c r="L13" t="n">
-        <v>609.2397010136802</v>
+        <v>609.2397010136801</v>
       </c>
       <c r="M13" t="n">
-        <v>919.8421980239261</v>
+        <v>919.8421980239259</v>
       </c>
       <c r="N13" t="n">
         <v>1230.371714930694</v>
@@ -5215,10 +5215,10 @@
         <v>1507.20845428473</v>
       </c>
       <c r="P13" t="n">
-        <v>1731.967596725728</v>
+        <v>1731.967596725727</v>
       </c>
       <c r="Q13" t="n">
-        <v>1828.440740296104</v>
+        <v>1828.440740296103</v>
       </c>
       <c r="R13" t="n">
         <v>1786.254948808378</v>
@@ -5227,22 +5227,22 @@
         <v>1662.382556730557</v>
       </c>
       <c r="T13" t="n">
-        <v>1518.064392693836</v>
+        <v>1518.064392693835</v>
       </c>
       <c r="U13" t="n">
-        <v>1309.499556421565</v>
+        <v>1309.499556421564</v>
       </c>
       <c r="V13" t="n">
-        <v>1135.393050273044</v>
+        <v>1135.393050273043</v>
       </c>
       <c r="W13" t="n">
-        <v>926.5538622934494</v>
+        <v>926.5538622934483</v>
       </c>
       <c r="X13" t="n">
-        <v>779.1422934527966</v>
+        <v>779.1422934527968</v>
       </c>
       <c r="Y13" t="n">
-        <v>638.9276963666324</v>
+        <v>638.9276963666325</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1224.653477863312</v>
+        <v>1001.62218317321</v>
       </c>
       <c r="C14" t="n">
-        <v>1224.653477863312</v>
+        <v>713.2376482901641</v>
       </c>
       <c r="D14" t="n">
-        <v>946.9657613139268</v>
+        <v>713.2376482901641</v>
       </c>
       <c r="E14" t="n">
-        <v>641.7554907730485</v>
+        <v>408.0273777492857</v>
       </c>
       <c r="F14" t="n">
-        <v>641.7554907730485</v>
+        <v>408.0273777492857</v>
       </c>
       <c r="G14" t="n">
-        <v>305.6281658766903</v>
+        <v>71.90005285292762</v>
       </c>
       <c r="H14" t="n">
-        <v>71.90005285292757</v>
+        <v>71.90005285292762</v>
       </c>
       <c r="I14" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J14" t="n">
         <v>100.5807505821534</v>
       </c>
       <c r="K14" t="n">
-        <v>517.4169896420227</v>
+        <v>551.7319143166199</v>
       </c>
       <c r="L14" t="n">
-        <v>715.9019269067089</v>
+        <v>750.2168515813061</v>
       </c>
       <c r="M14" t="n">
-        <v>968.4241010108415</v>
+        <v>1002.739025685438</v>
       </c>
       <c r="N14" t="n">
-        <v>1229.646156274617</v>
+        <v>1263.961080949214</v>
       </c>
       <c r="O14" t="n">
-        <v>1817.835158436129</v>
+        <v>1852.150083110726</v>
       </c>
       <c r="P14" t="n">
-        <v>2301.056053445743</v>
+        <v>2301.056053445744</v>
       </c>
       <c r="Q14" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="R14" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="S14" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="T14" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="U14" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="V14" t="n">
-        <v>2126.036315568391</v>
+        <v>2126.036315568392</v>
       </c>
       <c r="W14" t="n">
-        <v>1853.845642355643</v>
+        <v>1910.093167302126</v>
       </c>
       <c r="X14" t="n">
-        <v>1560.957866151929</v>
+        <v>1617.205391098412</v>
       </c>
       <c r="Y14" t="n">
-        <v>1251.396516233483</v>
+        <v>1307.644041179966</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>805.5210399725911</v>
+        <v>894.5051625683941</v>
       </c>
       <c r="C15" t="n">
-        <v>631.0680106914641</v>
+        <v>720.0521332872671</v>
       </c>
       <c r="D15" t="n">
-        <v>482.1336010302128</v>
+        <v>571.1177236260158</v>
       </c>
       <c r="E15" t="n">
-        <v>322.8961460247573</v>
+        <v>411.8802686205603</v>
       </c>
       <c r="F15" t="n">
-        <v>256.9395701090082</v>
+        <v>265.3457106474453</v>
       </c>
       <c r="G15" t="n">
         <v>185.3290573841996</v>
       </c>
       <c r="H15" t="n">
-        <v>86.38949104699981</v>
+        <v>86.38949104699984</v>
       </c>
       <c r="I15" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J15" t="n">
-        <v>60.30898829289224</v>
+        <v>185.1391132798969</v>
       </c>
       <c r="K15" t="n">
-        <v>248.6755825715588</v>
+        <v>546.9551236507253</v>
       </c>
       <c r="L15" t="n">
-        <v>796.5862556709322</v>
+        <v>1094.865796750099</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.903376428832</v>
+        <v>1683.054798911611</v>
       </c>
       <c r="N15" t="n">
-        <v>1277.72495095896</v>
+        <v>1933.876373441738</v>
       </c>
       <c r="O15" t="n">
-        <v>1865.913953120472</v>
+        <v>2141.109316966057</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.181734988027</v>
+        <v>2288.098957880073</v>
       </c>
       <c r="Q15" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="R15" t="n">
-        <v>2368.115080316159</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.449427772215</v>
+        <v>2311.433550368018</v>
       </c>
       <c r="T15" t="n">
-        <v>2026.284983060839</v>
+        <v>2195.847087714008</v>
       </c>
       <c r="U15" t="n">
-        <v>1878.73764092309</v>
+        <v>1967.721763518893</v>
       </c>
       <c r="V15" t="n">
-        <v>1643.585532691347</v>
+        <v>1732.56965528715</v>
       </c>
       <c r="W15" t="n">
-        <v>1389.348175963146</v>
+        <v>1478.332298558949</v>
       </c>
       <c r="X15" t="n">
-        <v>1181.496675757613</v>
+        <v>1270.480798353416</v>
       </c>
       <c r="Y15" t="n">
-        <v>973.7363769926592</v>
+        <v>1062.720499588462</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>537.8572135937588</v>
+        <v>537.8572135937579</v>
       </c>
       <c r="C16" t="n">
-        <v>449.4990127232178</v>
+        <v>449.4990127232173</v>
       </c>
       <c r="D16" t="n">
-        <v>379.9603553682479</v>
+        <v>379.9603553682474</v>
       </c>
       <c r="E16" t="n">
-        <v>312.6252438432206</v>
+        <v>312.6252438432202</v>
       </c>
       <c r="F16" t="n">
-        <v>246.313278402676</v>
+        <v>246.3132784026757</v>
       </c>
       <c r="G16" t="n">
         <v>158.4559804879574</v>
       </c>
       <c r="H16" t="n">
-        <v>86.3046885525136</v>
+        <v>86.30468855251357</v>
       </c>
       <c r="I16" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J16" t="n">
         <v>120.8742889773911</v>
       </c>
       <c r="K16" t="n">
-        <v>320.4327747288934</v>
+        <v>320.4327747288935</v>
       </c>
       <c r="L16" t="n">
-        <v>609.2397010136801</v>
+        <v>609.23970101368</v>
       </c>
       <c r="M16" t="n">
-        <v>919.842198023926</v>
+        <v>919.8421980239258</v>
       </c>
       <c r="N16" t="n">
         <v>1230.371714930694</v>
@@ -5461,7 +5461,7 @@
         <v>1786.254948808378</v>
       </c>
       <c r="S16" t="n">
-        <v>1662.382556730556</v>
+        <v>1662.382556730557</v>
       </c>
       <c r="T16" t="n">
         <v>1518.064392693835</v>
@@ -5473,13 +5473,13 @@
         <v>1135.393050273043</v>
       </c>
       <c r="W16" t="n">
-        <v>926.5538622934484</v>
+        <v>926.5538622934477</v>
       </c>
       <c r="X16" t="n">
-        <v>779.1422934527969</v>
+        <v>779.1422934527961</v>
       </c>
       <c r="Y16" t="n">
-        <v>638.9276963666327</v>
+        <v>638.9276963666318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1164.326325522266</v>
+        <v>1211.930070978975</v>
       </c>
       <c r="C17" t="n">
-        <v>1164.326325522266</v>
+        <v>996.8186254234199</v>
       </c>
       <c r="D17" t="n">
-        <v>959.911698300372</v>
+        <v>792.4039982015254</v>
       </c>
       <c r="E17" t="n">
-        <v>727.974517086984</v>
+        <v>567.5194933907111</v>
       </c>
       <c r="F17" t="n">
-        <v>470.8396836822326</v>
+        <v>310.3846599859597</v>
       </c>
       <c r="G17" t="n">
-        <v>207.9854481133643</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="H17" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="I17" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J17" t="n">
         <v>267.9863996025064</v>
       </c>
       <c r="K17" t="n">
-        <v>398.2336048915199</v>
+        <v>719.1375633369729</v>
       </c>
       <c r="L17" t="n">
-        <v>596.7185421562061</v>
+        <v>917.6225006016591</v>
       </c>
       <c r="M17" t="n">
-        <v>849.2407162603387</v>
+        <v>1170.144674705792</v>
       </c>
       <c r="N17" t="n">
-        <v>1110.462771524114</v>
+        <v>1431.366729969567</v>
       </c>
       <c r="O17" t="n">
-        <v>1584.095794510828</v>
+        <v>1664.696048122307</v>
       </c>
       <c r="P17" t="n">
-        <v>2067.316689520442</v>
+        <v>2090.864212692438</v>
       </c>
       <c r="Q17" t="n">
-        <v>2352.973697682601</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="R17" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="S17" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="T17" t="n">
-        <v>2317.246713987276</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="U17" t="n">
-        <v>2229.107441512683</v>
+        <v>2276.711186969393</v>
       </c>
       <c r="V17" t="n">
-        <v>2051.895625553969</v>
+        <v>2099.499371010678</v>
       </c>
       <c r="W17" t="n">
-        <v>1852.978041668711</v>
+        <v>1900.58178712542</v>
       </c>
       <c r="X17" t="n">
-        <v>1633.363354792487</v>
+        <v>1680.967100249197</v>
       </c>
       <c r="Y17" t="n">
-        <v>1397.075094201532</v>
+        <v>1444.678839658241</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>724.9430579152252</v>
+        <v>870.6087104591702</v>
       </c>
       <c r="C18" t="n">
-        <v>550.4900286340982</v>
+        <v>696.1556811780432</v>
       </c>
       <c r="D18" t="n">
-        <v>401.5556189728469</v>
+        <v>547.2212715167919</v>
       </c>
       <c r="E18" t="n">
-        <v>242.3181639673914</v>
+        <v>387.9838165113364</v>
       </c>
       <c r="F18" t="n">
-        <v>95.78360599427637</v>
+        <v>241.4492585382214</v>
       </c>
       <c r="G18" t="n">
-        <v>86.38949104699981</v>
+        <v>185.3290573841996</v>
       </c>
       <c r="H18" t="n">
-        <v>86.38949104699981</v>
+        <v>86.38949104699984</v>
       </c>
       <c r="I18" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J18" t="n">
-        <v>185.139113279897</v>
+        <v>185.1391132798969</v>
       </c>
       <c r="K18" t="n">
-        <v>546.9551236507255</v>
+        <v>546.9551236507253</v>
       </c>
       <c r="L18" t="n">
-        <v>1094.865796750099</v>
+        <v>727.7338548996742</v>
       </c>
       <c r="M18" t="n">
-        <v>1325.182917507999</v>
+        <v>958.0509756575743</v>
       </c>
       <c r="N18" t="n">
-        <v>1576.004492038127</v>
+        <v>1208.872550187702</v>
       </c>
       <c r="O18" t="n">
-        <v>1783.237435562445</v>
+        <v>1797.061552349214</v>
       </c>
       <c r="P18" t="n">
-        <v>2245.505217429999</v>
+        <v>2259.329334216769</v>
       </c>
       <c r="Q18" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="R18" t="n">
-        <v>2368.115080316159</v>
+        <v>2368.11508031616</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.449427772215</v>
+        <v>2368.11508031616</v>
       </c>
       <c r="T18" t="n">
-        <v>2026.284983060839</v>
+        <v>2171.950635604784</v>
       </c>
       <c r="U18" t="n">
-        <v>1798.159658865724</v>
+        <v>1943.825311409669</v>
       </c>
       <c r="V18" t="n">
-        <v>1563.007550633982</v>
+        <v>1708.673203177927</v>
       </c>
       <c r="W18" t="n">
-        <v>1308.77019390578</v>
+        <v>1454.435846449725</v>
       </c>
       <c r="X18" t="n">
-        <v>1100.918693700247</v>
+        <v>1246.584346244192</v>
       </c>
       <c r="Y18" t="n">
-        <v>893.1583949352932</v>
+        <v>1038.824047479238</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.50927948556986</v>
+        <v>417.2987200950466</v>
       </c>
       <c r="C19" t="n">
-        <v>63.4241679425192</v>
+        <v>361.73385449504</v>
       </c>
       <c r="D19" t="n">
-        <v>63.4241679425192</v>
+        <v>361.73385449504</v>
       </c>
       <c r="E19" t="n">
-        <v>63.4241679425192</v>
+        <v>361.73385449504</v>
       </c>
       <c r="F19" t="n">
-        <v>63.4241679425192</v>
+        <v>214.8439069971296</v>
       </c>
       <c r="G19" t="n">
-        <v>48.83995935529131</v>
+        <v>200.2596984099016</v>
       </c>
       <c r="H19" t="n">
-        <v>48.83995935529131</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="I19" t="n">
-        <v>48.83995935529131</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J19" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="K19" t="n">
         <v>168.1144299541701</v>
       </c>
       <c r="L19" t="n">
-        <v>377.9468760245326</v>
+        <v>377.9468760245325</v>
       </c>
       <c r="M19" t="n">
-        <v>609.5748928203541</v>
+        <v>609.574892820354</v>
       </c>
       <c r="N19" t="n">
-        <v>841.1299295126976</v>
+        <v>841.1299295126975</v>
       </c>
       <c r="O19" t="n">
         <v>1038.99218865231</v>
       </c>
       <c r="P19" t="n">
-        <v>1184.776850878883</v>
+        <v>1184.776850878882</v>
       </c>
       <c r="Q19" t="n">
         <v>1202.275514234834</v>
       </c>
       <c r="R19" t="n">
-        <v>1202.275514234834</v>
+        <v>1079.511740689743</v>
       </c>
       <c r="S19" t="n">
-        <v>1151.676211484503</v>
+        <v>1028.912437939412</v>
       </c>
       <c r="T19" t="n">
-        <v>1080.631136775272</v>
+        <v>957.867363230181</v>
       </c>
       <c r="U19" t="n">
-        <v>791.4883184456357</v>
+        <v>822.5756162854005</v>
       </c>
       <c r="V19" t="n">
-        <v>690.6549016246051</v>
+        <v>721.7421994643698</v>
       </c>
       <c r="W19" t="n">
-        <v>401.2377315876445</v>
+        <v>586.1761008122653</v>
       </c>
       <c r="X19" t="n">
-        <v>173.2481806896272</v>
+        <v>512.0376212991041</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.3066729309533</v>
+        <v>445.0961135404302</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1372.270250987878</v>
+        <v>1175.023143855928</v>
       </c>
       <c r="C20" t="n">
-        <v>1157.158805432322</v>
+        <v>959.9116983003722</v>
       </c>
       <c r="D20" t="n">
-        <v>959.9116983003714</v>
+        <v>959.9116983003722</v>
       </c>
       <c r="E20" t="n">
-        <v>727.9745170869835</v>
+        <v>727.9745170869842</v>
       </c>
       <c r="F20" t="n">
-        <v>470.8396836822322</v>
+        <v>470.8396836822328</v>
       </c>
       <c r="G20" t="n">
-        <v>207.9854481133643</v>
+        <v>207.9854481133644</v>
       </c>
       <c r="H20" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="I20" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J20" t="n">
         <v>100.5807505821534</v>
@@ -5765,37 +5765,37 @@
         <v>1263.961080949214</v>
       </c>
       <c r="O20" t="n">
-        <v>1852.150083110726</v>
+        <v>1607.643317682824</v>
       </c>
       <c r="P20" t="n">
-        <v>2090.864212692437</v>
+        <v>2090.864212692438</v>
       </c>
       <c r="Q20" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="R20" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="S20" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="T20" t="n">
-        <v>2317.246713987276</v>
+        <v>2339.61429373155</v>
       </c>
       <c r="U20" t="n">
-        <v>2217.436680102071</v>
+        <v>2239.804259846345</v>
       </c>
       <c r="V20" t="n">
-        <v>2040.224864143357</v>
+        <v>2062.59244388763</v>
       </c>
       <c r="W20" t="n">
-        <v>1841.307280258099</v>
+        <v>1863.674860002372</v>
       </c>
       <c r="X20" t="n">
-        <v>1841.307280258099</v>
+        <v>1644.060173126149</v>
       </c>
       <c r="Y20" t="n">
-        <v>1605.019019667143</v>
+        <v>1407.771912535193</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>852.785698544193</v>
+        <v>951.7252648813927</v>
       </c>
       <c r="C21" t="n">
-        <v>678.332669263066</v>
+        <v>777.2722356002657</v>
       </c>
       <c r="D21" t="n">
-        <v>529.3982596018147</v>
+        <v>628.3378259390145</v>
       </c>
       <c r="E21" t="n">
-        <v>370.1608045963593</v>
+        <v>469.100370933559</v>
       </c>
       <c r="F21" t="n">
-        <v>223.6262466232442</v>
+        <v>322.565812960444</v>
       </c>
       <c r="G21" t="n">
-        <v>86.38949104699981</v>
+        <v>185.3290573841996</v>
       </c>
       <c r="H21" t="n">
-        <v>86.38949104699981</v>
+        <v>86.38949104699982</v>
       </c>
       <c r="I21" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J21" t="n">
         <v>185.139113279897</v>
       </c>
       <c r="K21" t="n">
-        <v>421.6551263502631</v>
+        <v>546.9551236507255</v>
       </c>
       <c r="L21" t="n">
         <v>969.5657994496365</v>
@@ -5850,31 +5850,31 @@
         <v>2120.205220129536</v>
       </c>
       <c r="Q21" t="n">
-        <v>2376.521220854596</v>
+        <v>2376.521220854597</v>
       </c>
       <c r="R21" t="n">
-        <v>2368.115080316159</v>
+        <v>2368.11508031616</v>
       </c>
       <c r="S21" t="n">
-        <v>2350.292068401182</v>
+        <v>2368.11508031616</v>
       </c>
       <c r="T21" t="n">
-        <v>2154.127623689807</v>
+        <v>2171.950635604784</v>
       </c>
       <c r="U21" t="n">
-        <v>1926.002299494692</v>
+        <v>1943.825311409669</v>
       </c>
       <c r="V21" t="n">
-        <v>1690.850191262949</v>
+        <v>1708.673203177927</v>
       </c>
       <c r="W21" t="n">
-        <v>1436.612834534748</v>
+        <v>1535.552400871947</v>
       </c>
       <c r="X21" t="n">
-        <v>1228.761334329215</v>
+        <v>1327.700900666415</v>
       </c>
       <c r="Y21" t="n">
-        <v>1021.001035564261</v>
+        <v>1119.940601901461</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.94468450668593</v>
+        <v>78.50927948556946</v>
       </c>
       <c r="C22" t="n">
-        <v>67.85957296363526</v>
+        <v>63.42416794251874</v>
       </c>
       <c r="D22" t="n">
-        <v>67.85957296363526</v>
+        <v>63.42416794251874</v>
       </c>
       <c r="E22" t="n">
-        <v>67.85957296363526</v>
+        <v>63.42416794251874</v>
       </c>
       <c r="F22" t="n">
-        <v>67.85957296363526</v>
+        <v>63.42416794251874</v>
       </c>
       <c r="G22" t="n">
-        <v>53.27536437640737</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="H22" t="n">
-        <v>53.27536437640737</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="I22" t="n">
-        <v>53.27536437640737</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="J22" t="n">
-        <v>47.53042441709193</v>
+        <v>47.53042441709194</v>
       </c>
       <c r="K22" t="n">
         <v>168.1144299541701</v>
@@ -5932,28 +5932,28 @@
         <v>1202.275514234834</v>
       </c>
       <c r="R22" t="n">
-        <v>1079.511740689743</v>
+        <v>1202.275514234834</v>
       </c>
       <c r="S22" t="n">
-        <v>1002.260545120763</v>
+        <v>997.825140099647</v>
       </c>
       <c r="T22" t="n">
-        <v>777.3643990266759</v>
+        <v>772.9289940055598</v>
       </c>
       <c r="U22" t="n">
-        <v>642.0726520818955</v>
+        <v>637.6372470607794</v>
       </c>
       <c r="V22" t="n">
-        <v>541.2392352608649</v>
+        <v>536.8038302397487</v>
       </c>
       <c r="W22" t="n">
-        <v>251.8220652239044</v>
+        <v>401.2377315876442</v>
       </c>
       <c r="X22" t="n">
-        <v>177.6835857107433</v>
+        <v>327.0992520744831</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.7420779520694</v>
+        <v>260.1577443158092</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1384.065979383254</v>
+        <v>1384.065979383253</v>
       </c>
       <c r="C23" t="n">
         <v>1168.954533827698</v>
       </c>
       <c r="D23" t="n">
-        <v>964.539906605804</v>
+        <v>964.5399066058035</v>
       </c>
       <c r="E23" t="n">
-        <v>732.602725392416</v>
+        <v>732.6027253924153</v>
       </c>
       <c r="F23" t="n">
-        <v>475.4678919876649</v>
+        <v>475.467891987664</v>
       </c>
       <c r="G23" t="n">
-        <v>212.6136564187963</v>
+        <v>212.6136564187964</v>
       </c>
       <c r="H23" t="n">
         <v>52.15863272252393</v>
@@ -5987,28 +5987,28 @@
         <v>52.15863272252393</v>
       </c>
       <c r="J23" t="n">
-        <v>272.6146079079384</v>
+        <v>105.2089588875854</v>
       </c>
       <c r="K23" t="n">
-        <v>723.7657716424051</v>
+        <v>235.4561641765989</v>
       </c>
       <c r="L23" t="n">
-        <v>922.2507089070913</v>
+        <v>847.425703846231</v>
       </c>
       <c r="M23" t="n">
-        <v>1174.772883011224</v>
+        <v>1492.888783787464</v>
       </c>
       <c r="N23" t="n">
-        <v>1435.994938274999</v>
+        <v>2134.496976644757</v>
       </c>
       <c r="O23" t="n">
-        <v>1815.506209782428</v>
+        <v>2367.826294797497</v>
       </c>
       <c r="P23" t="n">
-        <v>2298.727104792042</v>
+        <v>2532.466468717343</v>
       </c>
       <c r="Q23" t="n">
-        <v>2584.384112954201</v>
+        <v>2607.931636126196</v>
       </c>
       <c r="R23" t="n">
         <v>2607.931636126196</v>
@@ -6017,10 +6017,10 @@
         <v>2607.931636126196</v>
       </c>
       <c r="T23" t="n">
-        <v>2548.657129258876</v>
+        <v>2548.657129258875</v>
       </c>
       <c r="U23" t="n">
-        <v>2448.847095373671</v>
+        <v>2448.84709537367</v>
       </c>
       <c r="V23" t="n">
         <v>2271.635279414956</v>
@@ -6029,7 +6029,7 @@
         <v>2072.717695529698</v>
       </c>
       <c r="X23" t="n">
-        <v>1853.103008653475</v>
+        <v>1853.103008653474</v>
       </c>
       <c r="Y23" t="n">
         <v>1616.814748062519</v>
@@ -6075,10 +6075,10 @@
         <v>1099.494005055531</v>
       </c>
       <c r="M24" t="n">
-        <v>1329.811125813431</v>
+        <v>1431.293335479137</v>
       </c>
       <c r="N24" t="n">
-        <v>1580.632700343558</v>
+        <v>1682.114910009264</v>
       </c>
       <c r="O24" t="n">
         <v>1889.347853533582</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.82795285280248</v>
+        <v>234.5572268456123</v>
       </c>
       <c r="C25" t="n">
-        <v>66.74284130975181</v>
+        <v>219.4721153025615</v>
       </c>
       <c r="D25" t="n">
-        <v>66.74284130975181</v>
+        <v>219.4721153025615</v>
       </c>
       <c r="E25" t="n">
-        <v>66.74284130975181</v>
+        <v>219.4721153025615</v>
       </c>
       <c r="F25" t="n">
-        <v>66.74284130975181</v>
+        <v>219.4721153025615</v>
       </c>
       <c r="G25" t="n">
-        <v>52.15863272252393</v>
+        <v>204.8879067153336</v>
       </c>
       <c r="H25" t="n">
         <v>52.15863272252393</v>
@@ -6172,25 +6172,25 @@
         <v>1206.903722540266</v>
       </c>
       <c r="S25" t="n">
-        <v>1156.304419789935</v>
+        <v>1153.87308745969</v>
       </c>
       <c r="T25" t="n">
-        <v>931.4082736958479</v>
+        <v>928.9769413656027</v>
       </c>
       <c r="U25" t="n">
-        <v>642.2654553662113</v>
+        <v>639.8341230359661</v>
       </c>
       <c r="V25" t="n">
-        <v>387.5809671603245</v>
+        <v>539.0007062149353</v>
       </c>
       <c r="W25" t="n">
-        <v>252.0148685082201</v>
+        <v>403.4346075628309</v>
       </c>
       <c r="X25" t="n">
-        <v>177.876388995059</v>
+        <v>329.2961280496697</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.9348812363851</v>
+        <v>262.3546202909958</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.377025425044</v>
+        <v>1869.377025425042</v>
       </c>
       <c r="C26" t="n">
-        <v>1580.992490541998</v>
+        <v>1580.992490541996</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.304773992613</v>
+        <v>1303.304773992612</v>
       </c>
       <c r="E26" t="n">
-        <v>998.0945034517349</v>
+        <v>998.0945034517333</v>
       </c>
       <c r="F26" t="n">
-        <v>667.6865807194931</v>
+        <v>667.6865807194915</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5592558231347</v>
+        <v>331.5592558231344</v>
       </c>
       <c r="H26" t="n">
-        <v>97.83114279937169</v>
+        <v>97.83114279937166</v>
       </c>
       <c r="I26" t="n">
-        <v>73.46151436353601</v>
+        <v>73.461514363536</v>
       </c>
       <c r="J26" t="n">
-        <v>126.5118405285975</v>
+        <v>293.9174895489505</v>
       </c>
       <c r="K26" t="n">
-        <v>577.6630042630641</v>
+        <v>424.1646948379639</v>
       </c>
       <c r="L26" t="n">
-        <v>1189.632543932696</v>
+        <v>1036.134234507596</v>
       </c>
       <c r="M26" t="n">
-        <v>1887.173116194733</v>
+        <v>1733.674806769633</v>
       </c>
       <c r="N26" t="n">
-        <v>2581.368626626372</v>
+        <v>2427.870317201272</v>
       </c>
       <c r="O26" t="n">
-        <v>3191.69012422923</v>
+        <v>3038.19181480413</v>
       </c>
       <c r="P26" t="n">
-        <v>3597.610550767947</v>
+        <v>3521.412709813744</v>
       </c>
       <c r="Q26" t="n">
-        <v>3673.0757181768</v>
+        <v>3649.528195004804</v>
       </c>
       <c r="R26" t="n">
-        <v>3673.0757181768</v>
+        <v>3673.075718176799</v>
       </c>
       <c r="S26" t="n">
         <v>3606.154307460418</v>
@@ -6257,19 +6257,19 @@
         <v>3473.606711265607</v>
       </c>
       <c r="U26" t="n">
-        <v>3300.523588052913</v>
+        <v>3300.523588052912</v>
       </c>
       <c r="V26" t="n">
-        <v>3050.038682766708</v>
+        <v>3050.038682766707</v>
       </c>
       <c r="W26" t="n">
-        <v>2777.84800955396</v>
+        <v>2777.848009553958</v>
       </c>
       <c r="X26" t="n">
-        <v>2484.960233350246</v>
+        <v>2484.960233350244</v>
       </c>
       <c r="Y26" t="n">
-        <v>2175.3988834318</v>
+        <v>2175.398883431798</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>112.3205809934439</v>
       </c>
       <c r="I27" t="n">
-        <v>73.46151436353601</v>
+        <v>73.461514363536</v>
       </c>
       <c r="J27" t="n">
         <v>211.0702032263411</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.7883035402027</v>
+        <v>563.7883035402024</v>
       </c>
       <c r="C28" t="n">
-        <v>475.4301026696617</v>
+        <v>475.4301026696613</v>
       </c>
       <c r="D28" t="n">
-        <v>405.8914453146917</v>
+        <v>405.8914453146914</v>
       </c>
       <c r="E28" t="n">
-        <v>338.5563337896644</v>
+        <v>338.5563337896641</v>
       </c>
       <c r="F28" t="n">
-        <v>272.2443683491199</v>
+        <v>272.2443683491196</v>
       </c>
       <c r="G28" t="n">
-        <v>184.3870704344015</v>
+        <v>184.3870704344013</v>
       </c>
       <c r="H28" t="n">
         <v>112.2357784989577</v>
       </c>
       <c r="I28" t="n">
-        <v>73.46151436353601</v>
+        <v>73.461514363536</v>
       </c>
       <c r="J28" t="n">
-        <v>146.8053789238351</v>
+        <v>146.8053789238353</v>
       </c>
       <c r="K28" t="n">
-        <v>346.3638646753375</v>
+        <v>346.3638646753377</v>
       </c>
       <c r="L28" t="n">
-        <v>635.1707909601242</v>
+        <v>635.1707909601244</v>
       </c>
       <c r="M28" t="n">
-        <v>945.7732879703699</v>
+        <v>945.7732879703703</v>
       </c>
       <c r="N28" t="n">
         <v>1256.302804877138</v>
@@ -6409,7 +6409,7 @@
         <v>1812.186038754822</v>
       </c>
       <c r="S28" t="n">
-        <v>1688.313646677001</v>
+        <v>1688.313646677</v>
       </c>
       <c r="T28" t="n">
         <v>1543.995482640279</v>
@@ -6421,13 +6421,13 @@
         <v>1161.324140219487</v>
       </c>
       <c r="W28" t="n">
-        <v>952.4849522398927</v>
+        <v>952.4849522398924</v>
       </c>
       <c r="X28" t="n">
-        <v>805.0733833992412</v>
+        <v>805.0733833992409</v>
       </c>
       <c r="Y28" t="n">
-        <v>664.8587863130766</v>
+        <v>664.8587863130763</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>998.094503451734</v>
       </c>
       <c r="F29" t="n">
-        <v>667.686580719492</v>
+        <v>667.6865807194922</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5592558231344</v>
+        <v>331.5592558231342</v>
       </c>
       <c r="H29" t="n">
-        <v>97.83114279937169</v>
+        <v>97.83114279937166</v>
       </c>
       <c r="I29" t="n">
-        <v>73.46151436353601</v>
+        <v>73.461514363536</v>
       </c>
       <c r="J29" t="n">
         <v>293.9174895489505</v>
@@ -6467,31 +6467,31 @@
         <v>745.068653283417</v>
       </c>
       <c r="L29" t="n">
-        <v>1347.158632866398</v>
+        <v>1357.038192953049</v>
       </c>
       <c r="M29" t="n">
-        <v>1599.68080697053</v>
+        <v>2054.578765215086</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.87631740217</v>
+        <v>2647.320973680291</v>
       </c>
       <c r="O29" t="n">
-        <v>2904.197815005028</v>
+        <v>2880.650291833032</v>
       </c>
       <c r="P29" t="n">
-        <v>3387.418710014641</v>
+        <v>3363.871186842645</v>
       </c>
       <c r="Q29" t="n">
-        <v>3673.0757181768</v>
+        <v>3649.528195004804</v>
       </c>
       <c r="R29" t="n">
         <v>3673.0757181768</v>
       </c>
       <c r="S29" t="n">
-        <v>3606.154307460418</v>
+        <v>3606.154307460419</v>
       </c>
       <c r="T29" t="n">
-        <v>3473.606711265607</v>
+        <v>3473.606711265608</v>
       </c>
       <c r="U29" t="n">
         <v>3300.523588052912</v>
@@ -6500,10 +6500,10 @@
         <v>3050.038682766707</v>
       </c>
       <c r="W29" t="n">
-        <v>2777.848009553958</v>
+        <v>2777.848009553959</v>
       </c>
       <c r="X29" t="n">
-        <v>2484.960233350244</v>
+        <v>2484.960233350245</v>
       </c>
       <c r="Y29" t="n">
         <v>2175.398883431799</v>
@@ -6537,28 +6537,28 @@
         <v>112.3205809934439</v>
       </c>
       <c r="I30" t="n">
-        <v>73.46151436353601</v>
+        <v>73.461514363536</v>
       </c>
       <c r="J30" t="n">
-        <v>86.24007823933633</v>
+        <v>211.0702032263411</v>
       </c>
       <c r="K30" t="n">
-        <v>186.235503967712</v>
+        <v>572.8862135971694</v>
       </c>
       <c r="L30" t="n">
-        <v>734.1461770670853</v>
+        <v>1120.796886696543</v>
       </c>
       <c r="M30" t="n">
-        <v>1425.511310937485</v>
+        <v>1351.114007454443</v>
       </c>
       <c r="N30" t="n">
-        <v>1676.332885467613</v>
+        <v>1601.93558198457</v>
       </c>
       <c r="O30" t="n">
-        <v>2118.627250033084</v>
+        <v>1910.650735174594</v>
       </c>
       <c r="P30" t="n">
-        <v>2580.895031900639</v>
+        <v>2372.918517042148</v>
       </c>
       <c r="Q30" t="n">
         <v>2629.234517767208</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7883035402024</v>
+        <v>563.7883035402026</v>
       </c>
       <c r="C31" t="n">
-        <v>475.4301026696613</v>
+        <v>475.4301026696616</v>
       </c>
       <c r="D31" t="n">
-        <v>405.8914453146914</v>
+        <v>405.8914453146916</v>
       </c>
       <c r="E31" t="n">
-        <v>338.5563337896641</v>
+        <v>338.5563337896643</v>
       </c>
       <c r="F31" t="n">
-        <v>272.2443683491196</v>
+        <v>272.2443683491198</v>
       </c>
       <c r="G31" t="n">
-        <v>184.3870704344013</v>
+        <v>184.3870704344015</v>
       </c>
       <c r="H31" t="n">
-        <v>112.2357784989574</v>
+        <v>112.2357784989577</v>
       </c>
       <c r="I31" t="n">
-        <v>73.46151436353601</v>
+        <v>73.461514363536</v>
       </c>
       <c r="J31" t="n">
         <v>146.8053789238352</v>
       </c>
       <c r="K31" t="n">
-        <v>346.3638646753371</v>
+        <v>346.3638646753375</v>
       </c>
       <c r="L31" t="n">
-        <v>635.1707909601238</v>
+        <v>635.1707909601242</v>
       </c>
       <c r="M31" t="n">
-        <v>945.7732879703694</v>
+        <v>945.7732879703699</v>
       </c>
       <c r="N31" t="n">
-        <v>1256.302804877137</v>
+        <v>1256.302804877138</v>
       </c>
       <c r="O31" t="n">
         <v>1533.139544231174</v>
@@ -6646,25 +6646,25 @@
         <v>1812.186038754822</v>
       </c>
       <c r="S31" t="n">
-        <v>1688.313646677</v>
+        <v>1688.313646677001</v>
       </c>
       <c r="T31" t="n">
         <v>1543.995482640279</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.430646368008</v>
+        <v>1335.430646368009</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.324140219487</v>
+        <v>1161.324140219488</v>
       </c>
       <c r="W31" t="n">
-        <v>952.484952239892</v>
+        <v>952.4849522398928</v>
       </c>
       <c r="X31" t="n">
-        <v>805.0733833992405</v>
+        <v>805.0733833992412</v>
       </c>
       <c r="Y31" t="n">
-        <v>664.8587863130763</v>
+        <v>664.8587863130765</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6683,16 @@
         <v>1303.304773992612</v>
       </c>
       <c r="E32" t="n">
-        <v>998.0945034517333</v>
+        <v>998.094503451734</v>
       </c>
       <c r="F32" t="n">
-        <v>667.6865807194915</v>
+        <v>667.6865807194923</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5592558231333</v>
+        <v>331.5592558231342</v>
       </c>
       <c r="H32" t="n">
-        <v>97.83114279937172</v>
+        <v>97.83114279937166</v>
       </c>
       <c r="I32" t="n">
         <v>73.461514363536</v>
@@ -6710,13 +6710,13 @@
         <v>2054.578765215086</v>
       </c>
       <c r="N32" t="n">
-        <v>2748.774275646725</v>
+        <v>2315.800820478861</v>
       </c>
       <c r="O32" t="n">
-        <v>2982.103593799465</v>
+        <v>2926.122318081719</v>
       </c>
       <c r="P32" t="n">
-        <v>3465.324488809079</v>
+        <v>3409.343213091333</v>
       </c>
       <c r="Q32" t="n">
         <v>3649.528195004804</v>
@@ -6725,10 +6725,10 @@
         <v>3673.0757181768</v>
       </c>
       <c r="S32" t="n">
-        <v>3606.154307460418</v>
+        <v>3606.154307460419</v>
       </c>
       <c r="T32" t="n">
-        <v>3473.606711265607</v>
+        <v>3473.606711265608</v>
       </c>
       <c r="U32" t="n">
         <v>3300.523588052912</v>
@@ -6777,25 +6777,25 @@
         <v>73.461514363536</v>
       </c>
       <c r="J33" t="n">
-        <v>211.0702032263411</v>
+        <v>139.2389354003717</v>
       </c>
       <c r="K33" t="n">
-        <v>572.8862135971694</v>
+        <v>239.2343611287474</v>
       </c>
       <c r="L33" t="n">
-        <v>753.6649448461183</v>
+        <v>420.0130923776962</v>
       </c>
       <c r="M33" t="n">
-        <v>983.9820656040184</v>
+        <v>1111.378226248096</v>
       </c>
       <c r="N33" t="n">
-        <v>1709.352590734264</v>
+        <v>1836.748751378342</v>
       </c>
       <c r="O33" t="n">
-        <v>1916.585534258582</v>
+        <v>2433.905390986622</v>
       </c>
       <c r="P33" t="n">
-        <v>2372.918517042148</v>
+        <v>2580.895031900639</v>
       </c>
       <c r="Q33" t="n">
         <v>2629.234517767208</v>
@@ -6838,37 +6838,37 @@
         <v>475.4301026696613</v>
       </c>
       <c r="D34" t="n">
-        <v>405.8914453146913</v>
+        <v>405.8914453146914</v>
       </c>
       <c r="E34" t="n">
-        <v>338.556333789664</v>
+        <v>338.5563337896641</v>
       </c>
       <c r="F34" t="n">
-        <v>272.2443683491194</v>
+        <v>272.2443683491196</v>
       </c>
       <c r="G34" t="n">
         <v>184.3870704344013</v>
       </c>
       <c r="H34" t="n">
-        <v>112.2357784989574</v>
+        <v>112.2357784989577</v>
       </c>
       <c r="I34" t="n">
         <v>73.461514363536</v>
       </c>
       <c r="J34" t="n">
-        <v>146.8053789238351</v>
+        <v>146.8053789238352</v>
       </c>
       <c r="K34" t="n">
         <v>346.3638646753375</v>
       </c>
       <c r="L34" t="n">
-        <v>635.1707909601241</v>
+        <v>635.1707909601242</v>
       </c>
       <c r="M34" t="n">
-        <v>945.7732879703696</v>
+        <v>945.77328797037</v>
       </c>
       <c r="N34" t="n">
-        <v>1256.302804877137</v>
+        <v>1256.302804877138</v>
       </c>
       <c r="O34" t="n">
         <v>1533.139544231174</v>
@@ -6883,7 +6883,7 @@
         <v>1812.186038754822</v>
       </c>
       <c r="S34" t="n">
-        <v>1688.313646677</v>
+        <v>1688.313646677001</v>
       </c>
       <c r="T34" t="n">
         <v>1543.995482640279</v>
@@ -6895,7 +6895,7 @@
         <v>1161.324140219487</v>
       </c>
       <c r="W34" t="n">
-        <v>952.4849522398922</v>
+        <v>952.4849522398924</v>
       </c>
       <c r="X34" t="n">
         <v>805.0733833992406</v>
@@ -6920,10 +6920,10 @@
         <v>1173.996541475934</v>
       </c>
       <c r="E35" t="n">
-        <v>893.1558993708909</v>
+        <v>893.1558993708913</v>
       </c>
       <c r="F35" t="n">
-        <v>587.1176050744848</v>
+        <v>587.1176050744853</v>
       </c>
       <c r="G35" t="n">
         <v>275.3599086139624</v>
@@ -6935,25 +6935,25 @@
         <v>66.00142402603528</v>
       </c>
       <c r="J35" t="n">
-        <v>286.4573992114497</v>
+        <v>119.0517501910967</v>
       </c>
       <c r="K35" t="n">
-        <v>737.6085629459163</v>
+        <v>570.2029139255633</v>
       </c>
       <c r="L35" t="n">
-        <v>1349.578102615548</v>
+        <v>1182.172453595195</v>
       </c>
       <c r="M35" t="n">
-        <v>1659.649745263358</v>
+        <v>1879.713025857232</v>
       </c>
       <c r="N35" t="n">
-        <v>1920.871800527133</v>
+        <v>2573.908536288872</v>
       </c>
       <c r="O35" t="n">
-        <v>2531.193298129991</v>
+        <v>3059.965859973065</v>
       </c>
       <c r="P35" t="n">
-        <v>3014.414193139605</v>
+        <v>3224.606033892911</v>
       </c>
       <c r="Q35" t="n">
         <v>3300.071201301764</v>
@@ -6980,7 +6980,7 @@
         <v>2258.173487090224</v>
       </c>
       <c r="Y35" t="n">
-        <v>1972.981765607613</v>
+        <v>1972.981765607614</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7020,16 @@
         <v>565.4261232596688</v>
       </c>
       <c r="L36" t="n">
-        <v>1113.336796359042</v>
+        <v>824.8953099407855</v>
       </c>
       <c r="M36" t="n">
-        <v>1370.490571652223</v>
+        <v>1055.212430698686</v>
       </c>
       <c r="N36" t="n">
-        <v>1621.312146182351</v>
+        <v>1306.034005228813</v>
       </c>
       <c r="O36" t="n">
-        <v>2218.468785790631</v>
+        <v>1903.190644837093</v>
       </c>
       <c r="P36" t="n">
         <v>2365.458426704648</v>
@@ -7075,10 +7075,10 @@
         <v>321.7522417171468</v>
       </c>
       <c r="D37" t="n">
-        <v>276.5832127980126</v>
+        <v>276.5832127980125</v>
       </c>
       <c r="E37" t="n">
-        <v>233.617729708821</v>
+        <v>233.6177297088209</v>
       </c>
       <c r="F37" t="n">
         <v>191.6753927041121</v>
@@ -7087,31 +7087,31 @@
         <v>128.1877232252295</v>
       </c>
       <c r="H37" t="n">
-        <v>80.4060597256213</v>
+        <v>80.40605972562129</v>
       </c>
       <c r="I37" t="n">
         <v>66.00142402603528</v>
       </c>
       <c r="J37" t="n">
-        <v>163.229961416297</v>
+        <v>66.00142402603528</v>
       </c>
       <c r="K37" t="n">
-        <v>283.8139669533751</v>
+        <v>186.5854295631135</v>
       </c>
       <c r="L37" t="n">
-        <v>493.6464130237376</v>
+        <v>396.4178756334759</v>
       </c>
       <c r="M37" t="n">
-        <v>725.2744298195591</v>
+        <v>628.0458924292974</v>
       </c>
       <c r="N37" t="n">
-        <v>956.8294665119026</v>
+        <v>962.4600821660276</v>
       </c>
       <c r="O37" t="n">
-        <v>1190.855206304764</v>
+        <v>1263.181494350027</v>
       </c>
       <c r="P37" t="n">
-        <v>1439.499021575724</v>
+        <v>1439.499021575723</v>
       </c>
       <c r="Q37" t="n">
         <v>1456.997684931675</v>
@@ -7123,7 +7123,7 @@
         <v>1339.6787582378</v>
       </c>
       <c r="T37" t="n">
-        <v>1219.730222636915</v>
+        <v>1219.730222636914</v>
       </c>
       <c r="U37" t="n">
         <v>1035.535014800479</v>
@@ -7138,7 +7138,7 @@
         <v>578.286637139219</v>
       </c>
       <c r="Y37" t="n">
-        <v>462.4416684888905</v>
+        <v>462.4416684888904</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1691.329536036693</v>
+        <v>1691.329536036692</v>
       </c>
       <c r="C38" t="n">
-        <v>1427.314629589483</v>
+        <v>1427.314629589482</v>
       </c>
       <c r="D38" t="n">
-        <v>1173.996541475934</v>
+        <v>1173.996541475933</v>
       </c>
       <c r="E38" t="n">
-        <v>893.1558993708907</v>
+        <v>893.1558993708904</v>
       </c>
       <c r="F38" t="n">
-        <v>587.1176050744846</v>
+        <v>587.1176050744843</v>
       </c>
       <c r="G38" t="n">
-        <v>275.359908613962</v>
+        <v>275.3599086139619</v>
       </c>
       <c r="H38" t="n">
         <v>66.00142402603528</v>
@@ -7172,28 +7172,28 @@
         <v>66.00142402603528</v>
       </c>
       <c r="J38" t="n">
-        <v>286.4573992114497</v>
+        <v>119.0517501910967</v>
       </c>
       <c r="K38" t="n">
-        <v>737.6085629459163</v>
+        <v>570.2029139255633</v>
       </c>
       <c r="L38" t="n">
-        <v>1349.578102615548</v>
+        <v>1182.172453595195</v>
       </c>
       <c r="M38" t="n">
-        <v>1636.102222091362</v>
+        <v>1879.713025857232</v>
       </c>
       <c r="N38" t="n">
-        <v>1897.324277355137</v>
+        <v>2573.908536288872</v>
       </c>
       <c r="O38" t="n">
-        <v>2507.645774957995</v>
+        <v>3059.965859973065</v>
       </c>
       <c r="P38" t="n">
-        <v>2990.866669967609</v>
+        <v>3224.606033892911</v>
       </c>
       <c r="Q38" t="n">
-        <v>3276.523678129768</v>
+        <v>3300.071201301764</v>
       </c>
       <c r="R38" t="n">
         <v>3300.071201301764</v>
@@ -7211,7 +7211,7 @@
         <v>2774.512679635014</v>
       </c>
       <c r="W38" t="n">
-        <v>2526.691634858102</v>
+        <v>2526.691634858101</v>
       </c>
       <c r="X38" t="n">
         <v>2258.173487090223</v>
@@ -7257,19 +7257,19 @@
         <v>565.4261232596688</v>
       </c>
       <c r="L39" t="n">
-        <v>961.7475077707379</v>
+        <v>1113.336796359042</v>
       </c>
       <c r="M39" t="n">
-        <v>1653.112641641138</v>
+        <v>1343.653917116942</v>
       </c>
       <c r="N39" t="n">
-        <v>1903.934216171265</v>
+        <v>1594.47549164707</v>
       </c>
       <c r="O39" t="n">
-        <v>2111.167159695583</v>
+        <v>1903.190644837093</v>
       </c>
       <c r="P39" t="n">
-        <v>2573.434941563138</v>
+        <v>2365.458426704648</v>
       </c>
       <c r="Q39" t="n">
         <v>2621.774427429707</v>
@@ -7312,10 +7312,10 @@
         <v>321.7522417171468</v>
       </c>
       <c r="D40" t="n">
-        <v>276.5832127980126</v>
+        <v>276.5832127980125</v>
       </c>
       <c r="E40" t="n">
-        <v>233.617729708821</v>
+        <v>233.6177297088209</v>
       </c>
       <c r="F40" t="n">
         <v>191.6753927041121</v>
@@ -7324,7 +7324,7 @@
         <v>128.1877232252295</v>
       </c>
       <c r="H40" t="n">
-        <v>80.4060597256213</v>
+        <v>80.40605972562129</v>
       </c>
       <c r="I40" t="n">
         <v>66.00142402603528</v>
@@ -7333,22 +7333,22 @@
         <v>163.229961416297</v>
       </c>
       <c r="K40" t="n">
-        <v>283.8139669533751</v>
+        <v>386.6731199977619</v>
       </c>
       <c r="L40" t="n">
-        <v>493.6464130237376</v>
+        <v>596.5055660681244</v>
       </c>
       <c r="M40" t="n">
-        <v>725.2744298195591</v>
+        <v>864.2970635171948</v>
       </c>
       <c r="N40" t="n">
-        <v>956.8294665119026</v>
+        <v>1095.852100209538</v>
       </c>
       <c r="O40" t="n">
-        <v>1257.550878695902</v>
+        <v>1293.714359349151</v>
       </c>
       <c r="P40" t="n">
-        <v>1403.335540922475</v>
+        <v>1439.499021575723</v>
       </c>
       <c r="Q40" t="n">
         <v>1456.997684931675</v>
@@ -7360,7 +7360,7 @@
         <v>1339.6787582378</v>
       </c>
       <c r="T40" t="n">
-        <v>1219.730222636915</v>
+        <v>1219.730222636914</v>
       </c>
       <c r="U40" t="n">
         <v>1035.535014800479</v>
@@ -7375,7 +7375,7 @@
         <v>578.286637139219</v>
       </c>
       <c r="Y40" t="n">
-        <v>462.4416684888905</v>
+        <v>462.4416684888904</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1691.329536036693</v>
+        <v>1691.329536036692</v>
       </c>
       <c r="C41" t="n">
-        <v>1427.314629589483</v>
+        <v>1427.314629589482</v>
       </c>
       <c r="D41" t="n">
-        <v>1173.996541475934</v>
+        <v>1173.996541475933</v>
       </c>
       <c r="E41" t="n">
-        <v>893.1558993708909</v>
+        <v>893.1558993708904</v>
       </c>
       <c r="F41" t="n">
-        <v>587.1176050744848</v>
+        <v>587.1176050744843</v>
       </c>
       <c r="G41" t="n">
-        <v>275.3599086139624</v>
+        <v>275.3599086139625</v>
       </c>
       <c r="H41" t="n">
         <v>66.00142402603528</v>
@@ -7409,28 +7409,28 @@
         <v>66.00142402603528</v>
       </c>
       <c r="J41" t="n">
-        <v>286.4573992114497</v>
+        <v>119.0517501910967</v>
       </c>
       <c r="K41" t="n">
-        <v>737.6085629459163</v>
+        <v>445.9387400068982</v>
       </c>
       <c r="L41" t="n">
-        <v>1349.578102615548</v>
+        <v>1057.90827967653</v>
       </c>
       <c r="M41" t="n">
-        <v>1602.100276719681</v>
+        <v>1755.448851938567</v>
       </c>
       <c r="N41" t="n">
-        <v>1897.324277355138</v>
+        <v>2449.644362370207</v>
       </c>
       <c r="O41" t="n">
-        <v>2507.645774957996</v>
+        <v>3059.965859973065</v>
       </c>
       <c r="P41" t="n">
-        <v>2990.86666996761</v>
+        <v>3224.606033892911</v>
       </c>
       <c r="Q41" t="n">
-        <v>3276.523678129769</v>
+        <v>3300.071201301764</v>
       </c>
       <c r="R41" t="n">
         <v>3300.071201301764</v>
@@ -7448,13 +7448,13 @@
         <v>2774.512679635014</v>
       </c>
       <c r="W41" t="n">
-        <v>2526.691634858102</v>
+        <v>2526.691634858101</v>
       </c>
       <c r="X41" t="n">
         <v>2258.173487090223</v>
       </c>
       <c r="Y41" t="n">
-        <v>1972.981765607613</v>
+        <v>1972.981765607612</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>66.00142402603528</v>
       </c>
       <c r="J42" t="n">
-        <v>123.1451413290737</v>
+        <v>203.6101128888403</v>
       </c>
       <c r="K42" t="n">
-        <v>484.9611516999022</v>
+        <v>565.4261232596688</v>
       </c>
       <c r="L42" t="n">
-        <v>1032.871824799276</v>
+        <v>1113.336796359042</v>
       </c>
       <c r="M42" t="n">
-        <v>1263.188945557176</v>
+        <v>1343.653917116942</v>
       </c>
       <c r="N42" t="n">
-        <v>1514.010520087303</v>
+        <v>1594.47549164707</v>
       </c>
       <c r="O42" t="n">
-        <v>2111.167159695583</v>
+        <v>1903.190644837093</v>
       </c>
       <c r="P42" t="n">
-        <v>2573.434941563138</v>
+        <v>2365.458426704648</v>
       </c>
       <c r="Q42" t="n">
         <v>2621.774427429707</v>
@@ -7549,10 +7549,10 @@
         <v>321.7522417171468</v>
       </c>
       <c r="D43" t="n">
-        <v>276.5832127980126</v>
+        <v>276.5832127980125</v>
       </c>
       <c r="E43" t="n">
-        <v>233.617729708821</v>
+        <v>233.6177297088209</v>
       </c>
       <c r="F43" t="n">
         <v>191.6753927041121</v>
@@ -7561,31 +7561,31 @@
         <v>128.1877232252295</v>
       </c>
       <c r="H43" t="n">
-        <v>80.4060597256213</v>
+        <v>80.40605972562129</v>
       </c>
       <c r="I43" t="n">
         <v>66.00142402603528</v>
       </c>
       <c r="J43" t="n">
-        <v>66.00142402603528</v>
+        <v>96.5342890251591</v>
       </c>
       <c r="K43" t="n">
-        <v>186.5854295631135</v>
+        <v>217.1182945622373</v>
       </c>
       <c r="L43" t="n">
-        <v>396.4178756334759</v>
+        <v>426.9507406325997</v>
       </c>
       <c r="M43" t="n">
-        <v>628.0458924292974</v>
+        <v>658.5787574284212</v>
       </c>
       <c r="N43" t="n">
-        <v>962.4600821660276</v>
+        <v>890.1337941207647</v>
       </c>
       <c r="O43" t="n">
-        <v>1263.181494350027</v>
+        <v>1190.855206304764</v>
       </c>
       <c r="P43" t="n">
-        <v>1408.9661565766</v>
+        <v>1439.499021575723</v>
       </c>
       <c r="Q43" t="n">
         <v>1456.997684931675</v>
@@ -7597,7 +7597,7 @@
         <v>1339.6787582378</v>
       </c>
       <c r="T43" t="n">
-        <v>1219.730222636915</v>
+        <v>1219.730222636914</v>
       </c>
       <c r="U43" t="n">
         <v>1035.535014800479</v>
@@ -7612,7 +7612,7 @@
         <v>578.286637139219</v>
       </c>
       <c r="Y43" t="n">
-        <v>462.4416684888905</v>
+        <v>462.4416684888904</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1691.329536036693</v>
+        <v>1691.329536036692</v>
       </c>
       <c r="C44" t="n">
-        <v>1427.314629589483</v>
+        <v>1427.314629589482</v>
       </c>
       <c r="D44" t="n">
-        <v>1173.996541475934</v>
+        <v>1173.996541475933</v>
       </c>
       <c r="E44" t="n">
         <v>893.1558993708909</v>
@@ -7649,25 +7649,25 @@
         <v>286.4573992114497</v>
       </c>
       <c r="K44" t="n">
-        <v>737.6085629459163</v>
+        <v>737.6085629459162</v>
       </c>
       <c r="L44" t="n">
         <v>1349.578102615548</v>
       </c>
       <c r="M44" t="n">
-        <v>1602.100276719681</v>
+        <v>2047.118674877585</v>
       </c>
       <c r="N44" t="n">
-        <v>1897.324277355138</v>
+        <v>2741.314185309224</v>
       </c>
       <c r="O44" t="n">
-        <v>2507.645774957996</v>
+        <v>3059.965859973065</v>
       </c>
       <c r="P44" t="n">
-        <v>2990.86666996761</v>
+        <v>3224.606033892911</v>
       </c>
       <c r="Q44" t="n">
-        <v>3276.523678129769</v>
+        <v>3300.071201301764</v>
       </c>
       <c r="R44" t="n">
         <v>3300.071201301764</v>
@@ -7679,16 +7679,16 @@
         <v>3149.341451262243</v>
       </c>
       <c r="U44" t="n">
-        <v>3000.627956485384</v>
+        <v>3000.627956485383</v>
       </c>
       <c r="V44" t="n">
-        <v>2774.512679635015</v>
+        <v>2774.512679635014</v>
       </c>
       <c r="W44" t="n">
-        <v>2526.691634858102</v>
+        <v>2526.691634858101</v>
       </c>
       <c r="X44" t="n">
-        <v>2258.173487090224</v>
+        <v>2258.173487090223</v>
       </c>
       <c r="Y44" t="n">
         <v>1972.981765607613</v>
@@ -7710,13 +7710,13 @@
         <v>646.8088255479579</v>
       </c>
       <c r="E45" t="n">
-        <v>487.5713705425023</v>
+        <v>487.5713705425025</v>
       </c>
       <c r="F45" t="n">
-        <v>341.0368125693873</v>
+        <v>341.0368125693874</v>
       </c>
       <c r="G45" t="n">
-        <v>203.8000569931429</v>
+        <v>203.800056993143</v>
       </c>
       <c r="H45" t="n">
         <v>104.8604906559432</v>
@@ -7725,25 +7725,25 @@
         <v>66.00142402603528</v>
       </c>
       <c r="J45" t="n">
-        <v>78.7799879018356</v>
+        <v>203.6101128888403</v>
       </c>
       <c r="K45" t="n">
-        <v>178.7754136302112</v>
+        <v>565.4261232596687</v>
       </c>
       <c r="L45" t="n">
-        <v>412.5530020401955</v>
+        <v>1113.336796359042</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.918135910596</v>
+        <v>1343.653917116942</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.288661040841</v>
+        <v>1594.475491647069</v>
       </c>
       <c r="O45" t="n">
-        <v>2426.445300649121</v>
+        <v>1903.190644837093</v>
       </c>
       <c r="P45" t="n">
-        <v>2573.434941563138</v>
+        <v>2365.458426704648</v>
       </c>
       <c r="Q45" t="n">
         <v>2621.774427429707</v>
@@ -7786,10 +7786,10 @@
         <v>321.7522417171468</v>
       </c>
       <c r="D46" t="n">
-        <v>276.5832127980126</v>
+        <v>276.5832127980125</v>
       </c>
       <c r="E46" t="n">
-        <v>233.617729708821</v>
+        <v>233.6177297088209</v>
       </c>
       <c r="F46" t="n">
         <v>191.6753927041121</v>
@@ -7798,31 +7798,31 @@
         <v>128.1877232252295</v>
       </c>
       <c r="H46" t="n">
-        <v>80.4060597256213</v>
+        <v>80.40605972562129</v>
       </c>
       <c r="I46" t="n">
         <v>66.00142402603528</v>
       </c>
       <c r="J46" t="n">
-        <v>163.229961416297</v>
+        <v>66.00142402603528</v>
       </c>
       <c r="K46" t="n">
-        <v>283.8139669533751</v>
+        <v>186.5854295631134</v>
       </c>
       <c r="L46" t="n">
-        <v>493.6464130237376</v>
+        <v>396.4178756334758</v>
       </c>
       <c r="M46" t="n">
-        <v>828.133582863946</v>
+        <v>628.0458924292973</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.688619556289</v>
+        <v>859.6009291216408</v>
       </c>
       <c r="O46" t="n">
-        <v>1257.550878695902</v>
+        <v>1087.996053260377</v>
       </c>
       <c r="P46" t="n">
-        <v>1439.499021575724</v>
+        <v>1336.639868531337</v>
       </c>
       <c r="Q46" t="n">
         <v>1456.997684931675</v>
@@ -7834,7 +7834,7 @@
         <v>1339.6787582378</v>
       </c>
       <c r="T46" t="n">
-        <v>1219.730222636915</v>
+        <v>1219.730222636914</v>
       </c>
       <c r="U46" t="n">
         <v>1035.535014800479</v>
@@ -7849,7 +7849,7 @@
         <v>578.286637139219</v>
       </c>
       <c r="Y46" t="n">
-        <v>462.4416684888905</v>
+        <v>462.4416684888904</v>
       </c>
     </row>
   </sheetData>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>154.6859700139625</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>240.3843105841297</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>41.93104293157259</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>221.9622806789035</v>
+        <v>124.9407687989451</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>361.486748892538</v>
       </c>
       <c r="N12" t="n">
-        <v>340.7751794256417</v>
+        <v>340.7751794256419</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>289.483872495814</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>358.4441252613863</v>
+        <v>358.4441252613865</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>287.1371680961325</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>41.93104293157256</v>
+        <v>41.93104293157259</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>89.26380661645547</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>361.4867488925379</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>384.8040996335296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>40.48765364439815</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>242.7310149838119</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>264.1696875255403</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>41.93104293157259</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>384.8040996335298</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.51163389699784</v>
+        <v>69.54787956692807</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>358.4441252613863</v>
+        <v>111.4675945261313</v>
       </c>
       <c r="P20" t="n">
-        <v>74.82217743622715</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.8995831737278</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>244.2746914646083</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>396.9100058960616</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>384.2284218116336</v>
       </c>
       <c r="O23" t="n">
-        <v>147.6585387421097</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>41.93104293157256</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>102.5072824906118</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>102.5072824906117</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>243.7174268877484</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>53.18213917394621</v>
       </c>
       <c r="R26" t="n">
-        <v>41.93104293157256</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>407.68186092757</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>334.8688416176065</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>41.93104293157256</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>237.4357788294478</v>
+        <v>102.507282490611</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10358,16 +10358,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.8369078655273</v>
+        <v>166.3836510147657</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>53.534199152561</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>312.4680220904541</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,19 +10592,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>58.13077630674465</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>255.280813668134</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>41.93104293157256</v>
@@ -10668,10 +10668,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>79.48530851734131</v>
       </c>
       <c r="M36" t="n">
-        <v>27.1077318538193</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,22 +10829,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>34.34539936533443</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>255.280813668134</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>41.93104293157256</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>217.7198517799195</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>102.5072824906114</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>198.6260449765535</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>34.34539936533491</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>41.93104293157256</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>44.81328629013954</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>102.5072824906114</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,22 +11303,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>34.34539936533491</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>86.18419849606093</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>41.93104293157259</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>53.53419915256094</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>102.5072824906119</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.9616394266884</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>89.91273569537442</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>274.9108393838908</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.1038435049193</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.3908318935252</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.2221202328628</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.3522919805685</v>
       </c>
       <c r="V11" t="n">
         <v>247.9800562333427</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.9588984416769</v>
+        <v>201.0610335778112</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.4860314402177</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>285.5006895342154</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>274.9108393838908</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.3908318935252</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.25219660921753</v>
+        <v>66.25219660921752</v>
       </c>
       <c r="T14" t="n">
         <v>131.2221202328628</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>55.68504969701773</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>212.9603310999999</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.982149638548037</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>158.8504734593097</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>58.68176179864735</v>
       </c>
       <c r="U17" t="n">
-        <v>11.55405379650604</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.095844889043875</v>
+        <v>202.3704809496753</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>22.14390394683076</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>217.4185400074614</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>909715.9252296246</v>
+        <v>909715.9252296245</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1006370.08802919</v>
+        <v>1006370.088029191</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1006370.088029191</v>
+        <v>1006370.08802919</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
@@ -26323,34 +26323,34 @@
         <v>414524.1486499304</v>
       </c>
       <c r="F2" t="n">
-        <v>414524.1486499304</v>
+        <v>414524.1486499303</v>
       </c>
       <c r="G2" t="n">
         <v>461822.99427525</v>
       </c>
       <c r="H2" t="n">
-        <v>461822.9942752501</v>
+        <v>461822.9942752499</v>
       </c>
       <c r="I2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="J2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="J2" t="n">
-        <v>472099.0176719628</v>
-      </c>
       <c r="K2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="L2" t="n">
+        <v>472099.0176719627</v>
+      </c>
+      <c r="M2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="M2" t="n">
-        <v>472099.0176719628</v>
-      </c>
       <c r="N2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719627</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58032.2867473724</v>
+        <v>58032.28674737232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15384.22225985978</v>
+        <v>15384.22225985975</v>
       </c>
       <c r="J3" t="n">
-        <v>75457.61459307339</v>
+        <v>75457.61459307338</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58032.28674737236</v>
+        <v>58032.28674737232</v>
       </c>
       <c r="M3" t="n">
         <v>144121.8398958125</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5785.47504206133</v>
+        <v>5785.475042061375</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>149163.9588647688</v>
+        <v>149163.9588647689</v>
       </c>
       <c r="F4" t="n">
-        <v>149163.9588647688</v>
+        <v>149163.9588647689</v>
       </c>
       <c r="G4" t="n">
         <v>195919.4235305432</v>
@@ -26457,7 +26457,7 @@
         <v>193168.3812330504</v>
       </c>
       <c r="P4" t="n">
-        <v>193168.3812330504</v>
+        <v>193168.3812330505</v>
       </c>
     </row>
     <row r="5">
@@ -26488,10 +26488,10 @@
         <v>63918.99082976599</v>
       </c>
       <c r="I5" t="n">
-        <v>67436.42914189432</v>
+        <v>67436.4291418943</v>
       </c>
       <c r="J5" t="n">
-        <v>77528.22379585743</v>
+        <v>77528.22379585741</v>
       </c>
       <c r="K5" t="n">
         <v>77528.22379585743</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6557.785319621245</v>
+        <v>6553.371741753017</v>
       </c>
       <c r="C6" t="n">
-        <v>6557.785319621129</v>
+        <v>6553.371741753075</v>
       </c>
       <c r="D6" t="n">
-        <v>6557.785319621071</v>
+        <v>6553.371741752959</v>
       </c>
       <c r="E6" t="n">
-        <v>-586144.7732964198</v>
+        <v>-586395.0988139069</v>
       </c>
       <c r="F6" t="n">
-        <v>207539.5943486017</v>
+        <v>207289.2688311144</v>
       </c>
       <c r="G6" t="n">
-        <v>143952.2931675684</v>
+        <v>143907.6148049741</v>
       </c>
       <c r="H6" t="n">
-        <v>201984.5799149408</v>
+        <v>201939.9015523463</v>
       </c>
       <c r="I6" t="n">
-        <v>187571.6288603911</v>
+        <v>187571.6288603914</v>
       </c>
       <c r="J6" t="n">
-        <v>130464.392942655</v>
+        <v>130464.3929426552</v>
       </c>
       <c r="K6" t="n">
-        <v>205922.0075357285</v>
+        <v>205922.0075357284</v>
       </c>
       <c r="L6" t="n">
-        <v>147889.7207883563</v>
+        <v>147889.7207883561</v>
       </c>
       <c r="M6" t="n">
-        <v>60921.99841370044</v>
+        <v>60921.99841370055</v>
       </c>
       <c r="N6" t="n">
-        <v>205043.8383095129</v>
+        <v>205043.838309513</v>
       </c>
       <c r="O6" t="n">
-        <v>199258.3632674515</v>
+        <v>199258.3632674517</v>
       </c>
       <c r="P6" t="n">
-        <v>205043.8383095129</v>
+        <v>205043.8383095128</v>
       </c>
     </row>
   </sheetData>
@@ -26698,22 +26698,22 @@
         <v>79.77220223679218</v>
       </c>
       <c r="G2" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="H2" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="I2" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="J2" t="n">
         <v>79.77220223679215</v>
       </c>
       <c r="K2" t="n">
+        <v>79.77220223679217</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.77220223679215</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.77220223679211</v>
       </c>
       <c r="M2" t="n">
         <v>103.8981343882695</v>
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.6653031984031</v>
+        <v>687.665303198403</v>
       </c>
       <c r="F3" t="n">
-        <v>687.6653031984031</v>
+        <v>687.665303198403</v>
       </c>
       <c r="G3" t="n">
-        <v>687.6653031984031</v>
+        <v>687.665303198403</v>
       </c>
       <c r="H3" t="n">
         <v>687.6653031984031</v>
@@ -26777,7 +26777,7 @@
         <v>687.6653031984031</v>
       </c>
       <c r="P3" t="n">
-        <v>687.6653031984031</v>
+        <v>687.665303198403</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>594.1303052136491</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="F4" t="n">
-        <v>594.1303052136491</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="G4" t="n">
-        <v>594.1303052136491</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="H4" t="n">
-        <v>594.1303052136491</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="I4" t="n">
         <v>651.9829090315491</v>
       </c>
       <c r="J4" t="n">
-        <v>918.2689295442001</v>
+        <v>918.2689295441999</v>
       </c>
       <c r="K4" t="n">
-        <v>918.2689295442001</v>
+        <v>918.2689295442</v>
       </c>
       <c r="L4" t="n">
         <v>918.2689295442</v>
       </c>
       <c r="M4" t="n">
-        <v>825.017800325441</v>
+        <v>825.0178003254409</v>
       </c>
       <c r="N4" t="n">
         <v>825.0178003254409</v>
       </c>
       <c r="O4" t="n">
-        <v>825.017800325441</v>
+        <v>825.0178003254409</v>
       </c>
       <c r="P4" t="n">
-        <v>825.017800325441</v>
+        <v>825.0178003254409</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>72.54035843421549</v>
+        <v>72.54035843421541</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.231843802576662</v>
+        <v>7.231843802576719</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.54035843421545</v>
+        <v>72.54035843421539</v>
       </c>
       <c r="M2" t="n">
-        <v>24.12593215147736</v>
+        <v>24.12593215147733</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.231843802576662</v>
+        <v>7.231843802576719</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.6653031984031</v>
+        <v>687.665303198403</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>594.1303052136491</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>57.85260381789999</v>
+        <v>57.85260381789988</v>
       </c>
       <c r="J4" t="n">
-        <v>266.286020512651</v>
+        <v>266.2860205126508</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.54035843421549</v>
+        <v>72.54035843421541</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.231843802576662</v>
+        <v>7.231843802576719</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>594.1303052136491</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,64 +28166,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.96998042292137</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>79.77220223679218</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>79.77220223679218</v>
       </c>
       <c r="U12" t="n">
-        <v>79.77220223679218</v>
+        <v>64.96998042292097</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28415,52 +28415,52 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>56.64790128986868</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8.322079133052597</v>
+      </c>
+      <c r="S15" t="n">
         <v>79.77220223679218</v>
       </c>
-      <c r="G15" t="n">
-        <v>64.96998042292145</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>79.77220223679218</v>
       </c>
       <c r="U15" t="n">
-        <v>79.77220223679218</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="C17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="D17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="E17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="F17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="G17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="H17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="I17" t="n">
         <v>103.8981343882695</v>
@@ -28615,22 +28615,22 @@
         <v>146.0243988460097</v>
       </c>
       <c r="T17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="U17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="V17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="W17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="X17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="Y17" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
     </row>
     <row r="18">
@@ -28655,10 +28655,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>126.5642142226782</v>
+        <v>80.30538887800037</v>
       </c>
       <c r="H18" t="n">
-        <v>97.95017067382774</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.2089960185054</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="C19" t="n">
-        <v>152.3125606710077</v>
+        <v>112.2376041546212</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28731,19 +28731,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="H19" t="n">
-        <v>151.2019812528816</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>118.1587237308596</v>
       </c>
       <c r="J19" t="n">
-        <v>4.391050970904901</v>
+        <v>5.687490559722306</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.53613580964</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="T19" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="V19" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="C20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="D20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="E20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="F20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="G20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="H20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="I20" t="n">
         <v>103.8981343882695</v>
@@ -28852,22 +28852,22 @@
         <v>146.0243988460097</v>
       </c>
       <c r="T20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="U20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="V20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="W20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="X20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="Y20" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.95017067382774</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>126.5642142226781</v>
+        <v>144.2089960185054</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>80.30538887800023</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.3125606710077</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>152.3125606710077</v>
+        <v>151.0161210821908</v>
       </c>
       <c r="H22" t="n">
         <v>151.2019812528816</v>
@@ -28980,7 +28980,7 @@
         <v>118.1587237308596</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.687490559722292</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.53613580964</v>
       </c>
       <c r="S22" t="n">
-        <v>125.927186780545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="V22" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="X22" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="C23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="E23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="F23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="G23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="H23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="I23" t="n">
         <v>103.8981343882695</v>
@@ -29089,22 +29089,22 @@
         <v>146.0243988460097</v>
       </c>
       <c r="T23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="U23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="V23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="W23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="X23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="Y23" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.0161210821905</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="C25" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29208,10 +29208,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="H25" t="n">
-        <v>151.2019812528816</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>118.1587237308596</v>
@@ -29244,7 +29244,7 @@
         <v>121.53613580964</v>
       </c>
       <c r="S25" t="n">
-        <v>152.3125606710077</v>
+        <v>149.9055416640648</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29253,16 +29253,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="W25" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="X25" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.3125606710077</v>
+        <v>152.3125606710076</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="C29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="D29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="E29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="F29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="G29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="H29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="I29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="T29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="U29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="V29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="W29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="X29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="C31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="D31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="E31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="F31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="G31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="H31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="I31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="K31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="L31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="M31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="N31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="O31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="P31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="R31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="S31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="T31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="U31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="V31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="W31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="X31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.77220223679215</v>
+        <v>79.77220223679217</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="C32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="D32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="E32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="F32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="G32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="H32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="I32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="T32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="U32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="V32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="W32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="X32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="C34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="D34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="E34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="F34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="G34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="H34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="I34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="K34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="L34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="M34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="N34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="O34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="P34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="R34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="S34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="T34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="U34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="V34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="W34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="X34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.77220223679211</v>
+        <v>79.77220223679215</v>
       </c>
     </row>
     <row r="35">
@@ -30165,25 +30165,25 @@
         <v>103.8981343882695</v>
       </c>
       <c r="J37" t="n">
+        <v>5.687490559722292</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>103.8981343882695</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
-        <v>36.52876833661523</v>
+        <v>103.8981343882695</v>
       </c>
       <c r="P37" t="n">
-        <v>103.8981343882695</v>
+        <v>30.84127777689267</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30405,25 +30405,25 @@
         <v>103.8981343882695</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>103.8981343882695</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>36.52876833661506</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>103.8981343882695</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.52876833661512</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>103.8981343882695</v>
@@ -30639,7 +30639,7 @@
         <v>103.8981343882695</v>
       </c>
       <c r="J43" t="n">
-        <v>5.687490559722292</v>
+        <v>36.52876833661504</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,16 +30651,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>103.8981343882695</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>103.8981343882695</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>103.8981343882695</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.84127777689291</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>103.8981343882695</v>
@@ -30876,28 +30876,28 @@
         <v>103.8981343882695</v>
       </c>
       <c r="J46" t="n">
+        <v>5.687490559722306</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>30.84127777689281</v>
+      </c>
+      <c r="P46" t="n">
         <v>103.8981343882695</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="Q46" t="n">
         <v>103.8981343882695</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>36.52876833661512</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>103.8981343882695</v>
@@ -31753,7 +31753,7 @@
         <v>2.764483630948352</v>
       </c>
       <c r="H11" t="n">
-        <v>28.31176798544982</v>
+        <v>28.31176798544981</v>
       </c>
       <c r="I11" t="n">
         <v>106.5777551821364</v>
@@ -31762,31 +31762,31 @@
         <v>234.6320925722029</v>
       </c>
       <c r="K11" t="n">
-        <v>351.6526846702467</v>
+        <v>351.6526846702466</v>
       </c>
       <c r="L11" t="n">
         <v>436.2562505908824</v>
       </c>
       <c r="M11" t="n">
-        <v>485.4191363627602</v>
+        <v>485.4191363627601</v>
       </c>
       <c r="N11" t="n">
-        <v>493.2737254791922</v>
+        <v>493.2737254791921</v>
       </c>
       <c r="O11" t="n">
-        <v>465.7843913739495</v>
+        <v>465.7843913739494</v>
       </c>
       <c r="P11" t="n">
-        <v>397.536201734912</v>
+        <v>397.5362017349119</v>
       </c>
       <c r="Q11" t="n">
-        <v>298.5331317015741</v>
+        <v>298.533131701574</v>
       </c>
       <c r="R11" t="n">
-        <v>173.6544948825596</v>
+        <v>173.6544948825595</v>
       </c>
       <c r="S11" t="n">
-        <v>62.99567074023563</v>
+        <v>62.99567074023562</v>
       </c>
       <c r="T11" t="n">
         <v>12.10152709447642</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.479129142728641</v>
+        <v>1.47912914272864</v>
       </c>
       <c r="H12" t="n">
-        <v>14.28527356266872</v>
+        <v>14.28527356266871</v>
       </c>
       <c r="I12" t="n">
-        <v>50.92615688780627</v>
+        <v>50.92615688780626</v>
       </c>
       <c r="J12" t="n">
-        <v>139.7452669452529</v>
+        <v>139.7452669452528</v>
       </c>
       <c r="K12" t="n">
-        <v>238.8469195080718</v>
+        <v>238.8469195080717</v>
       </c>
       <c r="L12" t="n">
-        <v>321.1591588192165</v>
+        <v>321.1591588192164</v>
       </c>
       <c r="M12" t="n">
         <v>374.7775902431296</v>
@@ -31853,25 +31853,25 @@
         <v>384.6968378713406</v>
       </c>
       <c r="O12" t="n">
-        <v>351.9224500245639</v>
+        <v>351.9224500245638</v>
       </c>
       <c r="P12" t="n">
-        <v>282.448792175963</v>
+        <v>282.4487921759629</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.8095375876069</v>
+        <v>188.8095375876068</v>
       </c>
       <c r="R12" t="n">
-        <v>91.83575501959055</v>
+        <v>91.83575501959054</v>
       </c>
       <c r="S12" t="n">
-        <v>27.47417508533241</v>
+        <v>27.4741750853324</v>
       </c>
       <c r="T12" t="n">
-        <v>5.961928430559738</v>
+        <v>5.961928430559737</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09731112781109481</v>
+        <v>0.0973111278110948</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31917,7 +31917,7 @@
         <v>37.29175119639865</v>
       </c>
       <c r="J13" t="n">
-        <v>87.67168955695048</v>
+        <v>87.67168955695047</v>
       </c>
       <c r="K13" t="n">
         <v>144.0715176209113</v>
@@ -31926,7 +31926,7 @@
         <v>184.3619404673227</v>
       </c>
       <c r="M13" t="n">
-        <v>194.3838167713125</v>
+        <v>194.3838167713124</v>
       </c>
       <c r="N13" t="n">
         <v>189.761804077684</v>
@@ -31935,22 +31935,22 @@
         <v>175.2757399037504</v>
       </c>
       <c r="P13" t="n">
-        <v>149.9786753074025</v>
+        <v>149.9786753074024</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.8374607829589</v>
+        <v>103.8374607829588</v>
       </c>
       <c r="R13" t="n">
-        <v>55.75725556752951</v>
+        <v>55.7572555675295</v>
       </c>
       <c r="S13" t="n">
         <v>21.61072764313669</v>
       </c>
       <c r="T13" t="n">
-        <v>5.298404795135235</v>
+        <v>5.298404795135234</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06763921015066267</v>
+        <v>0.06763921015066265</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>2.764483630948352</v>
       </c>
       <c r="H14" t="n">
-        <v>28.31176798544982</v>
+        <v>28.31176798544981</v>
       </c>
       <c r="I14" t="n">
         <v>106.5777551821364</v>
@@ -31999,31 +31999,31 @@
         <v>234.6320925722029</v>
       </c>
       <c r="K14" t="n">
-        <v>351.6526846702467</v>
+        <v>351.6526846702466</v>
       </c>
       <c r="L14" t="n">
         <v>436.2562505908824</v>
       </c>
       <c r="M14" t="n">
-        <v>485.4191363627602</v>
+        <v>485.4191363627601</v>
       </c>
       <c r="N14" t="n">
-        <v>493.2737254791922</v>
+        <v>493.2737254791921</v>
       </c>
       <c r="O14" t="n">
-        <v>465.7843913739495</v>
+        <v>465.7843913739494</v>
       </c>
       <c r="P14" t="n">
-        <v>397.536201734912</v>
+        <v>397.5362017349119</v>
       </c>
       <c r="Q14" t="n">
-        <v>298.5331317015741</v>
+        <v>298.533131701574</v>
       </c>
       <c r="R14" t="n">
-        <v>173.6544948825596</v>
+        <v>173.6544948825595</v>
       </c>
       <c r="S14" t="n">
-        <v>62.99567074023563</v>
+        <v>62.99567074023562</v>
       </c>
       <c r="T14" t="n">
         <v>12.10152709447642</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.479129142728641</v>
+        <v>1.47912914272864</v>
       </c>
       <c r="H15" t="n">
-        <v>14.28527356266872</v>
+        <v>14.28527356266871</v>
       </c>
       <c r="I15" t="n">
-        <v>50.92615688780627</v>
+        <v>50.92615688780626</v>
       </c>
       <c r="J15" t="n">
-        <v>139.7452669452529</v>
+        <v>139.7452669452528</v>
       </c>
       <c r="K15" t="n">
-        <v>238.8469195080718</v>
+        <v>238.8469195080717</v>
       </c>
       <c r="L15" t="n">
-        <v>321.1591588192165</v>
+        <v>321.1591588192164</v>
       </c>
       <c r="M15" t="n">
         <v>374.7775902431296</v>
@@ -32090,25 +32090,25 @@
         <v>384.6968378713406</v>
       </c>
       <c r="O15" t="n">
-        <v>351.9224500245639</v>
+        <v>351.9224500245638</v>
       </c>
       <c r="P15" t="n">
-        <v>282.448792175963</v>
+        <v>282.4487921759629</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.8095375876069</v>
+        <v>188.8095375876068</v>
       </c>
       <c r="R15" t="n">
-        <v>91.83575501959055</v>
+        <v>91.83575501959054</v>
       </c>
       <c r="S15" t="n">
-        <v>27.47417508533241</v>
+        <v>27.4741750853324</v>
       </c>
       <c r="T15" t="n">
-        <v>5.961928430559738</v>
+        <v>5.961928430559737</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09731112781109481</v>
+        <v>0.0973111278110948</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,7 +32154,7 @@
         <v>37.29175119639865</v>
       </c>
       <c r="J16" t="n">
-        <v>87.67168955695048</v>
+        <v>87.67168955695047</v>
       </c>
       <c r="K16" t="n">
         <v>144.0715176209113</v>
@@ -32163,7 +32163,7 @@
         <v>184.3619404673227</v>
       </c>
       <c r="M16" t="n">
-        <v>194.3838167713125</v>
+        <v>194.3838167713124</v>
       </c>
       <c r="N16" t="n">
         <v>189.761804077684</v>
@@ -32172,22 +32172,22 @@
         <v>175.2757399037504</v>
       </c>
       <c r="P16" t="n">
-        <v>149.9786753074025</v>
+        <v>149.9786753074024</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.8374607829589</v>
+        <v>103.8374607829588</v>
       </c>
       <c r="R16" t="n">
-        <v>55.75725556752951</v>
+        <v>55.7572555675295</v>
       </c>
       <c r="S16" t="n">
         <v>21.61072764313669</v>
       </c>
       <c r="T16" t="n">
-        <v>5.298404795135235</v>
+        <v>5.298404795135234</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06763921015066267</v>
+        <v>0.06763921015066265</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>2.764483630948352</v>
       </c>
       <c r="H17" t="n">
-        <v>28.31176798544982</v>
+        <v>28.31176798544981</v>
       </c>
       <c r="I17" t="n">
         <v>106.5777551821364</v>
@@ -32236,31 +32236,31 @@
         <v>234.6320925722029</v>
       </c>
       <c r="K17" t="n">
-        <v>351.6526846702467</v>
+        <v>351.6526846702466</v>
       </c>
       <c r="L17" t="n">
         <v>436.2562505908824</v>
       </c>
       <c r="M17" t="n">
-        <v>485.4191363627602</v>
+        <v>485.4191363627601</v>
       </c>
       <c r="N17" t="n">
-        <v>493.2737254791922</v>
+        <v>493.2737254791921</v>
       </c>
       <c r="O17" t="n">
-        <v>465.7843913739495</v>
+        <v>465.7843913739494</v>
       </c>
       <c r="P17" t="n">
-        <v>397.536201734912</v>
+        <v>397.5362017349119</v>
       </c>
       <c r="Q17" t="n">
-        <v>298.5331317015741</v>
+        <v>298.533131701574</v>
       </c>
       <c r="R17" t="n">
-        <v>173.6544948825596</v>
+        <v>173.6544948825595</v>
       </c>
       <c r="S17" t="n">
-        <v>62.99567074023563</v>
+        <v>62.99567074023562</v>
       </c>
       <c r="T17" t="n">
         <v>12.10152709447642</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.479129142728641</v>
+        <v>1.47912914272864</v>
       </c>
       <c r="H18" t="n">
-        <v>14.28527356266872</v>
+        <v>14.28527356266871</v>
       </c>
       <c r="I18" t="n">
-        <v>50.92615688780627</v>
+        <v>50.92615688780626</v>
       </c>
       <c r="J18" t="n">
-        <v>139.7452669452529</v>
+        <v>139.7452669452528</v>
       </c>
       <c r="K18" t="n">
-        <v>238.8469195080718</v>
+        <v>238.8469195080717</v>
       </c>
       <c r="L18" t="n">
-        <v>321.1591588192165</v>
+        <v>321.1591588192164</v>
       </c>
       <c r="M18" t="n">
         <v>374.7775902431296</v>
@@ -32327,25 +32327,25 @@
         <v>384.6968378713406</v>
       </c>
       <c r="O18" t="n">
-        <v>351.9224500245639</v>
+        <v>351.9224500245638</v>
       </c>
       <c r="P18" t="n">
-        <v>282.448792175963</v>
+        <v>282.4487921759629</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.8095375876069</v>
+        <v>188.8095375876068</v>
       </c>
       <c r="R18" t="n">
-        <v>91.83575501959055</v>
+        <v>91.83575501959054</v>
       </c>
       <c r="S18" t="n">
-        <v>27.47417508533241</v>
+        <v>27.4741750853324</v>
       </c>
       <c r="T18" t="n">
-        <v>5.961928430559738</v>
+        <v>5.961928430559737</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09731112781109481</v>
+        <v>0.0973111278110948</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,7 +32391,7 @@
         <v>37.29175119639865</v>
       </c>
       <c r="J19" t="n">
-        <v>87.67168955695048</v>
+        <v>87.67168955695047</v>
       </c>
       <c r="K19" t="n">
         <v>144.0715176209113</v>
@@ -32400,7 +32400,7 @@
         <v>184.3619404673227</v>
       </c>
       <c r="M19" t="n">
-        <v>194.3838167713125</v>
+        <v>194.3838167713124</v>
       </c>
       <c r="N19" t="n">
         <v>189.761804077684</v>
@@ -32409,22 +32409,22 @@
         <v>175.2757399037504</v>
       </c>
       <c r="P19" t="n">
-        <v>149.9786753074025</v>
+        <v>149.9786753074024</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.8374607829589</v>
+        <v>103.8374607829588</v>
       </c>
       <c r="R19" t="n">
-        <v>55.75725556752951</v>
+        <v>55.7572555675295</v>
       </c>
       <c r="S19" t="n">
         <v>21.61072764313669</v>
       </c>
       <c r="T19" t="n">
-        <v>5.298404795135235</v>
+        <v>5.298404795135234</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06763921015066267</v>
+        <v>0.06763921015066265</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>2.764483630948352</v>
       </c>
       <c r="H44" t="n">
-        <v>28.31176798544982</v>
+        <v>28.31176798544981</v>
       </c>
       <c r="I44" t="n">
         <v>106.5777551821364</v>
@@ -34369,31 +34369,31 @@
         <v>234.6320925722029</v>
       </c>
       <c r="K44" t="n">
-        <v>351.6526846702467</v>
+        <v>351.6526846702466</v>
       </c>
       <c r="L44" t="n">
         <v>436.2562505908824</v>
       </c>
       <c r="M44" t="n">
-        <v>485.4191363627602</v>
+        <v>485.4191363627601</v>
       </c>
       <c r="N44" t="n">
-        <v>493.2737254791922</v>
+        <v>493.2737254791921</v>
       </c>
       <c r="O44" t="n">
-        <v>465.7843913739495</v>
+        <v>465.7843913739494</v>
       </c>
       <c r="P44" t="n">
-        <v>397.536201734912</v>
+        <v>397.5362017349119</v>
       </c>
       <c r="Q44" t="n">
-        <v>298.5331317015741</v>
+        <v>298.533131701574</v>
       </c>
       <c r="R44" t="n">
-        <v>173.6544948825596</v>
+        <v>173.6544948825595</v>
       </c>
       <c r="S44" t="n">
-        <v>62.99567074023563</v>
+        <v>62.99567074023562</v>
       </c>
       <c r="T44" t="n">
         <v>12.10152709447642</v>
@@ -34436,22 +34436,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.479129142728641</v>
+        <v>1.47912914272864</v>
       </c>
       <c r="H45" t="n">
-        <v>14.28527356266872</v>
+        <v>14.28527356266871</v>
       </c>
       <c r="I45" t="n">
-        <v>50.92615688780627</v>
+        <v>50.92615688780626</v>
       </c>
       <c r="J45" t="n">
-        <v>139.7452669452529</v>
+        <v>139.7452669452528</v>
       </c>
       <c r="K45" t="n">
-        <v>238.8469195080718</v>
+        <v>238.8469195080717</v>
       </c>
       <c r="L45" t="n">
-        <v>321.1591588192165</v>
+        <v>321.1591588192164</v>
       </c>
       <c r="M45" t="n">
         <v>374.7775902431296</v>
@@ -34460,25 +34460,25 @@
         <v>384.6968378713406</v>
       </c>
       <c r="O45" t="n">
-        <v>351.9224500245639</v>
+        <v>351.9224500245638</v>
       </c>
       <c r="P45" t="n">
-        <v>282.448792175963</v>
+        <v>282.4487921759629</v>
       </c>
       <c r="Q45" t="n">
-        <v>188.8095375876069</v>
+        <v>188.8095375876068</v>
       </c>
       <c r="R45" t="n">
-        <v>91.83575501959055</v>
+        <v>91.83575501959054</v>
       </c>
       <c r="S45" t="n">
-        <v>27.47417508533241</v>
+        <v>27.4741750853324</v>
       </c>
       <c r="T45" t="n">
-        <v>5.961928430559738</v>
+        <v>5.961928430559737</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09731112781109481</v>
+        <v>0.0973111278110948</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,7 +34524,7 @@
         <v>37.29175119639865</v>
       </c>
       <c r="J46" t="n">
-        <v>87.67168955695048</v>
+        <v>87.67168955695047</v>
       </c>
       <c r="K46" t="n">
         <v>144.0715176209113</v>
@@ -34533,7 +34533,7 @@
         <v>184.3619404673227</v>
       </c>
       <c r="M46" t="n">
-        <v>194.3838167713125</v>
+        <v>194.3838167713124</v>
       </c>
       <c r="N46" t="n">
         <v>189.761804077684</v>
@@ -34542,22 +34542,22 @@
         <v>175.2757399037504</v>
       </c>
       <c r="P46" t="n">
-        <v>149.9786753074025</v>
+        <v>149.9786753074024</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.8374607829589</v>
+        <v>103.8374607829588</v>
       </c>
       <c r="R46" t="n">
-        <v>55.75725556752951</v>
+        <v>55.7572555675295</v>
       </c>
       <c r="S46" t="n">
         <v>21.61072764313669</v>
       </c>
       <c r="T46" t="n">
-        <v>5.298404795135235</v>
+        <v>5.298404795135234</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06763921015066267</v>
+        <v>0.06763921015066265</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>222.6828032175904</v>
       </c>
       <c r="K11" t="n">
-        <v>455.7082461964309</v>
+        <v>455.7082461964308</v>
       </c>
       <c r="L11" t="n">
-        <v>200.4898356208952</v>
+        <v>355.1758056348576</v>
       </c>
       <c r="M11" t="n">
-        <v>255.0729031354875</v>
+        <v>255.0729031354873</v>
       </c>
       <c r="N11" t="n">
-        <v>263.8606618826013</v>
+        <v>263.8606618826012</v>
       </c>
       <c r="O11" t="n">
-        <v>235.6861799522628</v>
+        <v>235.6861799522627</v>
       </c>
       <c r="P11" t="n">
-        <v>406.6875165637722</v>
+        <v>488.101914151125</v>
       </c>
       <c r="Q11" t="n">
-        <v>288.5424324870293</v>
+        <v>76.22744182712452</v>
       </c>
       <c r="R11" t="n">
-        <v>23.78537694140988</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>138.998675618995</v>
       </c>
       <c r="K12" t="n">
-        <v>365.4707175462914</v>
+        <v>101.0054805337128</v>
       </c>
       <c r="L12" t="n">
-        <v>404.5670597182458</v>
+        <v>307.5455478382873</v>
       </c>
       <c r="M12" t="n">
-        <v>232.6435563211113</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="N12" t="n">
-        <v>594.1303052136491</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="O12" t="n">
         <v>209.3262055801194</v>
@@ -35507,7 +35507,7 @@
         <v>148.4743847616327</v>
       </c>
       <c r="Q12" t="n">
-        <v>258.9050512374345</v>
+        <v>258.9050512374344</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.08471167706989</v>
+        <v>74.08471167706988</v>
       </c>
       <c r="K13" t="n">
         <v>201.5742280318206</v>
@@ -35574,19 +35574,19 @@
         <v>291.724167964431</v>
       </c>
       <c r="M13" t="n">
-        <v>313.7398959699453</v>
+        <v>313.7398959699452</v>
       </c>
       <c r="N13" t="n">
         <v>313.6661786937048</v>
       </c>
       <c r="O13" t="n">
-        <v>279.6330700545823</v>
+        <v>279.6330700545822</v>
       </c>
       <c r="P13" t="n">
         <v>227.0294368090881</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44761976805665</v>
+        <v>97.44761976805664</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>53.58618804551662</v>
+        <v>53.58618804551659</v>
       </c>
       <c r="K14" t="n">
-        <v>421.0467061210801</v>
+        <v>455.7082461964308</v>
       </c>
       <c r="L14" t="n">
-        <v>200.4898356208952</v>
+        <v>200.4898356208951</v>
       </c>
       <c r="M14" t="n">
-        <v>255.0729031354875</v>
+        <v>255.0729031354873</v>
       </c>
       <c r="N14" t="n">
-        <v>263.8606618826013</v>
+        <v>263.8606618826012</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1303052136491</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="P14" t="n">
-        <v>488.1019141511251</v>
+        <v>453.4403740757749</v>
       </c>
       <c r="Q14" t="n">
-        <v>76.22744182712458</v>
+        <v>76.22744182712452</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>12.90764027858617</v>
+        <v>138.998675618995</v>
       </c>
       <c r="K15" t="n">
-        <v>190.2692871501683</v>
+        <v>365.4707175462913</v>
       </c>
       <c r="L15" t="n">
-        <v>553.4451243428015</v>
+        <v>553.4451243428014</v>
       </c>
       <c r="M15" t="n">
-        <v>232.6435563211113</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="N15" t="n">
         <v>253.3551257880073</v>
       </c>
       <c r="O15" t="n">
-        <v>594.1303052136491</v>
+        <v>209.3262055801194</v>
       </c>
       <c r="P15" t="n">
-        <v>466.9371534015699</v>
+        <v>148.4743847616327</v>
       </c>
       <c r="Q15" t="n">
-        <v>48.82776350158534</v>
+        <v>89.31541714598346</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.08471167706989</v>
+        <v>74.08471167706988</v>
       </c>
       <c r="K16" t="n">
         <v>201.5742280318206</v>
@@ -35811,19 +35811,19 @@
         <v>291.724167964431</v>
       </c>
       <c r="M16" t="n">
-        <v>313.7398959699453</v>
+        <v>313.7398959699452</v>
       </c>
       <c r="N16" t="n">
         <v>313.6661786937048</v>
       </c>
       <c r="O16" t="n">
-        <v>279.6330700545823</v>
+        <v>279.6330700545822</v>
       </c>
       <c r="P16" t="n">
         <v>227.0294368090881</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44761976805665</v>
+        <v>97.44761976805664</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>222.6828032175904</v>
       </c>
       <c r="K17" t="n">
-        <v>131.5628336252661</v>
+        <v>455.7082461964308</v>
       </c>
       <c r="L17" t="n">
-        <v>200.4898356208952</v>
+        <v>200.4898356208951</v>
       </c>
       <c r="M17" t="n">
-        <v>255.0729031354875</v>
+        <v>255.0729031354873</v>
       </c>
       <c r="N17" t="n">
-        <v>263.8606618826013</v>
+        <v>263.8606618826012</v>
       </c>
       <c r="O17" t="n">
-        <v>478.4171949360747</v>
+        <v>235.6861799522627</v>
       </c>
       <c r="P17" t="n">
-        <v>488.1019141511251</v>
+        <v>430.4728935051826</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.5424324870293</v>
+        <v>288.5424324870292</v>
       </c>
       <c r="R17" t="n">
-        <v>23.78537694140988</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>138.998675618995</v>
       </c>
       <c r="K18" t="n">
-        <v>365.4707175462914</v>
+        <v>365.4707175462913</v>
       </c>
       <c r="L18" t="n">
-        <v>553.4451243428015</v>
+        <v>182.6047790393422</v>
       </c>
       <c r="M18" t="n">
-        <v>232.6435563211113</v>
+        <v>232.6435563211112</v>
       </c>
       <c r="N18" t="n">
         <v>253.3551257880073</v>
       </c>
       <c r="O18" t="n">
-        <v>209.3262055801194</v>
+        <v>594.1303052136492</v>
       </c>
       <c r="P18" t="n">
-        <v>466.9371534015699</v>
+        <v>466.9371534015698</v>
       </c>
       <c r="Q18" t="n">
-        <v>132.3393973985832</v>
+        <v>118.3756430685134</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>121.8020257950284</v>
       </c>
       <c r="L19" t="n">
-        <v>211.9519657276389</v>
+        <v>211.9519657276388</v>
       </c>
       <c r="M19" t="n">
-        <v>233.9676937331531</v>
+        <v>233.967693733153</v>
       </c>
       <c r="N19" t="n">
         <v>233.8939764569126</v>
@@ -36060,7 +36060,7 @@
         <v>147.2572345722959</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.67541753126447</v>
+        <v>17.67541753126446</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>263.8606618826013</v>
       </c>
       <c r="O20" t="n">
-        <v>594.1303052136491</v>
+        <v>347.153774478394</v>
       </c>
       <c r="P20" t="n">
-        <v>241.1253834158696</v>
+        <v>488.1019141511251</v>
       </c>
       <c r="Q20" t="n">
         <v>288.5424324870293</v>
@@ -36200,10 +36200,10 @@
         <v>138.998675618995</v>
       </c>
       <c r="K21" t="n">
-        <v>238.9050637074405</v>
+        <v>365.4707175462914</v>
       </c>
       <c r="L21" t="n">
-        <v>553.4451243428015</v>
+        <v>426.8794705039506</v>
       </c>
       <c r="M21" t="n">
         <v>232.6435563211113</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>222.6828032175904</v>
+        <v>53.58618804551662</v>
       </c>
       <c r="K23" t="n">
-        <v>455.7082461964309</v>
+        <v>131.5628336252661</v>
       </c>
       <c r="L23" t="n">
-        <v>200.4898356208952</v>
+        <v>618.1510501713456</v>
       </c>
       <c r="M23" t="n">
-        <v>255.0729031354875</v>
+        <v>651.9829090315491</v>
       </c>
       <c r="N23" t="n">
-        <v>263.8606618826013</v>
+        <v>648.0890836942349</v>
       </c>
       <c r="O23" t="n">
-        <v>383.3447186943725</v>
+        <v>235.6861799522628</v>
       </c>
       <c r="P23" t="n">
-        <v>488.1019141511251</v>
+        <v>166.3032059796425</v>
       </c>
       <c r="Q23" t="n">
-        <v>288.5424324870293</v>
+        <v>76.22744182712458</v>
       </c>
       <c r="R23" t="n">
-        <v>23.78537694140988</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>553.4451243428015</v>
       </c>
       <c r="M24" t="n">
-        <v>232.6435563211113</v>
+        <v>335.1508388117231</v>
       </c>
       <c r="N24" t="n">
         <v>253.3551257880073</v>
       </c>
       <c r="O24" t="n">
-        <v>311.8334880707311</v>
+        <v>209.3262055801194</v>
       </c>
       <c r="P24" t="n">
         <v>466.9371534015699</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>53.58618804551662</v>
+        <v>222.6828032175904</v>
       </c>
       <c r="K26" t="n">
-        <v>455.7082461964309</v>
+        <v>131.5628336252661</v>
       </c>
       <c r="L26" t="n">
         <v>618.1510501713456</v>
@@ -36610,13 +36610,13 @@
         <v>616.4863612150082</v>
       </c>
       <c r="P26" t="n">
-        <v>410.0206328673909</v>
+        <v>488.1019141511251</v>
       </c>
       <c r="Q26" t="n">
-        <v>76.22744182712458</v>
+        <v>129.4095810010708</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>23.78537694140988</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,16 +36835,16 @@
         <v>455.7082461964309</v>
       </c>
       <c r="L29" t="n">
-        <v>608.1716965484652</v>
+        <v>618.1510501713456</v>
       </c>
       <c r="M29" t="n">
-        <v>255.0729031354875</v>
+        <v>704.5864366283199</v>
       </c>
       <c r="N29" t="n">
-        <v>701.2075862945854</v>
+        <v>598.7295035002078</v>
       </c>
       <c r="O29" t="n">
-        <v>616.4863612150082</v>
+        <v>235.6861799522628</v>
       </c>
       <c r="P29" t="n">
         <v>488.1019141511251</v>
@@ -36853,7 +36853,7 @@
         <v>288.5424324870293</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>23.78537694140988</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.90764027858617</v>
+        <v>138.998675618995</v>
       </c>
       <c r="K30" t="n">
-        <v>101.0054805337128</v>
+        <v>365.4707175462914</v>
       </c>
       <c r="L30" t="n">
         <v>553.4451243428015</v>
       </c>
       <c r="M30" t="n">
-        <v>698.3486200711112</v>
+        <v>232.6435563211113</v>
       </c>
       <c r="N30" t="n">
         <v>253.3551257880073</v>
       </c>
       <c r="O30" t="n">
-        <v>446.7619844095673</v>
+        <v>311.8334880707304</v>
       </c>
       <c r="P30" t="n">
         <v>466.9371534015699</v>
       </c>
       <c r="Q30" t="n">
-        <v>48.82776350158534</v>
+        <v>258.9050512374345</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.08471167706986</v>
+        <v>74.08471167706988</v>
       </c>
       <c r="K31" t="n">
         <v>201.5742280318206</v>
@@ -37002,13 +37002,13 @@
         <v>313.6661786937048</v>
       </c>
       <c r="O31" t="n">
-        <v>279.6330700545822</v>
+        <v>279.6330700545823</v>
       </c>
       <c r="P31" t="n">
         <v>227.0294368090881</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44761976805663</v>
+        <v>97.44761976805664</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,16 +37078,16 @@
         <v>704.5864366283199</v>
       </c>
       <c r="N32" t="n">
-        <v>701.2075862945854</v>
+        <v>263.8606618826013</v>
       </c>
       <c r="O32" t="n">
-        <v>235.6861799522628</v>
+        <v>616.4863612150082</v>
       </c>
       <c r="P32" t="n">
         <v>488.1019141511251</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.0643496926518</v>
+        <v>242.6110928418902</v>
       </c>
       <c r="R32" t="n">
         <v>23.78537694140988</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>138.998675618995</v>
+        <v>66.44183943114717</v>
       </c>
       <c r="K33" t="n">
-        <v>365.4707175462914</v>
+        <v>101.0054805337128</v>
       </c>
       <c r="L33" t="n">
         <v>182.6047790393423</v>
       </c>
       <c r="M33" t="n">
-        <v>232.6435563211113</v>
+        <v>698.3486200711112</v>
       </c>
       <c r="N33" t="n">
         <v>732.6975001315609</v>
       </c>
       <c r="O33" t="n">
-        <v>209.3262055801194</v>
+        <v>603.188524856849</v>
       </c>
       <c r="P33" t="n">
-        <v>460.9424068520868</v>
+        <v>148.4743847616327</v>
       </c>
       <c r="Q33" t="n">
-        <v>258.9050512374345</v>
+        <v>48.82776350158534</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.08471167706982</v>
+        <v>74.08471167706986</v>
       </c>
       <c r="K34" t="n">
         <v>201.5742280318206</v>
@@ -37245,7 +37245,7 @@
         <v>227.0294368090881</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.44761976805658</v>
+        <v>97.44761976805663</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>222.6828032175904</v>
+        <v>53.58618804551662</v>
       </c>
       <c r="K35" t="n">
         <v>455.7082461964309</v>
@@ -37312,19 +37312,19 @@
         <v>618.1510501713456</v>
       </c>
       <c r="M35" t="n">
-        <v>313.2036794422321</v>
+        <v>704.5864366283199</v>
       </c>
       <c r="N35" t="n">
-        <v>263.8606618826013</v>
+        <v>701.2075862945854</v>
       </c>
       <c r="O35" t="n">
-        <v>616.4863612150082</v>
+        <v>490.9669936203968</v>
       </c>
       <c r="P35" t="n">
-        <v>488.1019141511251</v>
+        <v>166.3032059796425</v>
       </c>
       <c r="Q35" t="n">
-        <v>288.5424324870293</v>
+        <v>76.22744182712458</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>365.4707175462914</v>
       </c>
       <c r="L36" t="n">
-        <v>553.4451243428015</v>
+        <v>262.0900875566836</v>
       </c>
       <c r="M36" t="n">
-        <v>259.7512881749306</v>
+        <v>232.6435563211113</v>
       </c>
       <c r="N36" t="n">
         <v>253.3551257880073</v>
@@ -37400,7 +37400,7 @@
         <v>603.188524856849</v>
       </c>
       <c r="P36" t="n">
-        <v>148.4743847616327</v>
+        <v>466.9371534015699</v>
       </c>
       <c r="Q36" t="n">
         <v>258.9050512374345</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>98.21064382854718</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>121.8020257950284</v>
@@ -37473,13 +37473,13 @@
         <v>233.9676937331531</v>
       </c>
       <c r="N37" t="n">
-        <v>233.8939764569126</v>
+        <v>337.7921108451821</v>
       </c>
       <c r="O37" t="n">
-        <v>236.3896361544053</v>
+        <v>303.7590022060596</v>
       </c>
       <c r="P37" t="n">
-        <v>251.1553689605654</v>
+        <v>178.0985123491886</v>
       </c>
       <c r="Q37" t="n">
         <v>17.67541753126447</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>222.6828032175904</v>
+        <v>53.58618804551662</v>
       </c>
       <c r="K38" t="n">
         <v>455.7082461964309</v>
@@ -37549,22 +37549,22 @@
         <v>618.1510501713456</v>
       </c>
       <c r="M38" t="n">
-        <v>289.4183025008219</v>
+        <v>704.5864366283199</v>
       </c>
       <c r="N38" t="n">
-        <v>263.8606618826013</v>
+        <v>701.2075862945854</v>
       </c>
       <c r="O38" t="n">
-        <v>616.4863612150082</v>
+        <v>490.9669936203968</v>
       </c>
       <c r="P38" t="n">
-        <v>488.1019141511251</v>
+        <v>166.3032059796425</v>
       </c>
       <c r="Q38" t="n">
-        <v>288.5424324870293</v>
+        <v>76.22744182712458</v>
       </c>
       <c r="R38" t="n">
-        <v>23.78537694140988</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>365.4707175462914</v>
       </c>
       <c r="L39" t="n">
-        <v>400.3246308192618</v>
+        <v>553.4451243428015</v>
       </c>
       <c r="M39" t="n">
-        <v>698.3486200711112</v>
+        <v>232.6435563211113</v>
       </c>
       <c r="N39" t="n">
         <v>253.3551257880073</v>
       </c>
       <c r="O39" t="n">
-        <v>209.3262055801194</v>
+        <v>311.8334880707309</v>
       </c>
       <c r="P39" t="n">
         <v>466.9371534015699</v>
       </c>
       <c r="Q39" t="n">
-        <v>48.82776350158534</v>
+        <v>258.9050512374345</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>98.21064382854718</v>
+        <v>98.21064382854719</v>
       </c>
       <c r="K40" t="n">
-        <v>121.8020257950284</v>
+        <v>225.7001601832979</v>
       </c>
       <c r="L40" t="n">
         <v>211.9519657276389</v>
       </c>
       <c r="M40" t="n">
-        <v>233.9676937331531</v>
+        <v>270.4964620697681</v>
       </c>
       <c r="N40" t="n">
         <v>233.8939764569126</v>
       </c>
       <c r="O40" t="n">
-        <v>303.7590022060596</v>
+        <v>199.8608678177901</v>
       </c>
       <c r="P40" t="n">
         <v>147.2572345722959</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.20418586787959</v>
+        <v>17.67541753126447</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>222.6828032175904</v>
+        <v>53.58618804551662</v>
       </c>
       <c r="K41" t="n">
-        <v>455.7082461964309</v>
+        <v>330.1888786018197</v>
       </c>
       <c r="L41" t="n">
         <v>618.1510501713456</v>
       </c>
       <c r="M41" t="n">
-        <v>255.0729031354875</v>
+        <v>704.5864366283199</v>
       </c>
       <c r="N41" t="n">
-        <v>298.2060612479362</v>
+        <v>701.2075862945854</v>
       </c>
       <c r="O41" t="n">
         <v>616.4863612150082</v>
       </c>
       <c r="P41" t="n">
-        <v>488.1019141511251</v>
+        <v>166.3032059796425</v>
       </c>
       <c r="Q41" t="n">
-        <v>288.5424324870293</v>
+        <v>76.22744182712458</v>
       </c>
       <c r="R41" t="n">
-        <v>23.78537694140988</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>57.72092656872572</v>
+        <v>138.998675618995</v>
       </c>
       <c r="K42" t="n">
         <v>365.4707175462914</v>
@@ -37871,13 +37871,13 @@
         <v>253.3551257880073</v>
       </c>
       <c r="O42" t="n">
-        <v>603.188524856849</v>
+        <v>311.8334880707309</v>
       </c>
       <c r="P42" t="n">
         <v>466.9371534015699</v>
       </c>
       <c r="Q42" t="n">
-        <v>48.82776350158534</v>
+        <v>258.9050512374345</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.84127777689275</v>
       </c>
       <c r="K43" t="n">
         <v>121.8020257950284</v>
@@ -37947,16 +37947,16 @@
         <v>233.9676937331531</v>
       </c>
       <c r="N43" t="n">
-        <v>337.7921108451821</v>
+        <v>233.8939764569126</v>
       </c>
       <c r="O43" t="n">
         <v>303.7590022060596</v>
       </c>
       <c r="P43" t="n">
-        <v>147.2572345722959</v>
+        <v>251.1553689605654</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.51669530815738</v>
+        <v>17.67541753126447</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>222.6828032175904</v>
       </c>
       <c r="K44" t="n">
-        <v>455.7082461964309</v>
+        <v>455.7082461964308</v>
       </c>
       <c r="L44" t="n">
         <v>618.1510501713456</v>
       </c>
       <c r="M44" t="n">
-        <v>255.0729031354875</v>
+        <v>704.5864366283198</v>
       </c>
       <c r="N44" t="n">
-        <v>298.2060612479362</v>
+        <v>701.2075862945853</v>
       </c>
       <c r="O44" t="n">
-        <v>616.4863612150082</v>
+        <v>321.8703784483236</v>
       </c>
       <c r="P44" t="n">
-        <v>488.1019141511251</v>
+        <v>166.3032059796424</v>
       </c>
       <c r="Q44" t="n">
-        <v>288.5424324870293</v>
+        <v>76.22744182712452</v>
       </c>
       <c r="R44" t="n">
-        <v>23.78537694140988</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.90764027858617</v>
+        <v>138.998675618995</v>
       </c>
       <c r="K45" t="n">
-        <v>101.0054805337128</v>
+        <v>365.4707175462913</v>
       </c>
       <c r="L45" t="n">
-        <v>236.1389781919032</v>
+        <v>553.4451243428014</v>
       </c>
       <c r="M45" t="n">
-        <v>698.3486200711112</v>
+        <v>232.6435563211112</v>
       </c>
       <c r="N45" t="n">
-        <v>732.6975001315609</v>
+        <v>253.3551257880073</v>
       </c>
       <c r="O45" t="n">
-        <v>603.188524856849</v>
+        <v>311.8334880707313</v>
       </c>
       <c r="P45" t="n">
-        <v>148.4743847616327</v>
+        <v>466.9371534015698</v>
       </c>
       <c r="Q45" t="n">
-        <v>48.82776350158534</v>
+        <v>258.9050512374344</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>98.21064382854718</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>121.8020257950284</v>
       </c>
       <c r="L46" t="n">
-        <v>211.9519657276389</v>
+        <v>211.9519657276388</v>
       </c>
       <c r="M46" t="n">
-        <v>337.8658281214225</v>
+        <v>233.967693733153</v>
       </c>
       <c r="N46" t="n">
         <v>233.8939764569126</v>
       </c>
       <c r="O46" t="n">
-        <v>199.8608678177901</v>
+        <v>230.7021455946829</v>
       </c>
       <c r="P46" t="n">
-        <v>183.7860029089111</v>
+        <v>251.1553689605654</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.67541753126447</v>
+        <v>121.5735519195339</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
